--- a/MIPCel.xlsx
+++ b/MIPCel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cooperterrill/Desktop/MIPCel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2A5ED7-60F5-C345-A521-692FA8A65C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567F1304-A7A4-9C4F-8B38-D355489DAB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19300" xr2:uid="{95E4A03E-3FED-BF42-ACD2-5D2E65B33E92}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <definedName name="_zero">Sheet1!$A$1</definedName>
     <definedName name="ADD">Sheet1!$D$18</definedName>
     <definedName name="ADDI">Sheet1!$M$18</definedName>
-    <definedName name="ALU">Sheet1!$E$15</definedName>
+    <definedName name="ALU">Sheet1!$W$14</definedName>
     <definedName name="AND">Sheet1!$H$18</definedName>
     <definedName name="ANDI">Sheet1!$N$18</definedName>
     <definedName name="BEQ">Sheet1!$R$18</definedName>
@@ -970,8 +970,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:DX201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="132" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="132" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -979,50 +979,52 @@
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" customWidth="1"/>
     <col min="8" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.83203125" customWidth="1"/>
+    <col min="20" max="20" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" cm="1">
-        <f t="array" aca="1" ref="A1" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_zero))</f>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_zero)))</f>
+        <v>1680</v>
+      </c>
+      <c r="B1" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_v0)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1">
+        <f ca="1">IFERROR(IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_v1))),_v1)</f>
         <v>0</v>
       </c>
-      <c r="B1" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_v0))</f>
+      <c r="D1" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a0)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E1">
+        <f ca="1">IFERROR(IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a1))),_a1)</f>
         <v>0</v>
       </c>
-      <c r="C1" cm="1">
-        <f t="array" aca="1" ref="C1" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_v1))</f>
-        <v>0</v>
-      </c>
-      <c r="D1" cm="1">
-        <f t="array" aca="1" ref="D1" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a0))</f>
-        <v>0</v>
-      </c>
-      <c r="E1" cm="1">
-        <f t="array" aca="1" ref="E1" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a1))</f>
-        <v>0</v>
-      </c>
-      <c r="F1" cm="1">
-        <f t="array" aca="1" ref="F1" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a2))</f>
-        <v>0</v>
-      </c>
-      <c r="G1" cm="1">
-        <f t="array" aca="1" ref="G1" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a3))</f>
-        <v>0</v>
-      </c>
-      <c r="H1" cm="1">
-        <f t="array" aca="1" ref="H1" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t0))</f>
-        <v>0</v>
+      <c r="F1" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a2)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G1" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a3)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H1" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t0)))</f>
+        <v>#NAME?</v>
       </c>
       <c r="T1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1057,44 +1059,44 @@
       <c r="P2" s="3"/>
       <c r="T2">
         <f ca="1">CLK</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" cm="1">
-        <f t="array" aca="1" ref="A3" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t1))</f>
-        <v>255</v>
-      </c>
-      <c r="B3" cm="1">
-        <f t="array" aca="1" ref="B3" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t2))</f>
-        <v>0</v>
-      </c>
-      <c r="C3" cm="1">
-        <f t="array" aca="1" ref="C3" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t3))</f>
-        <v>0</v>
-      </c>
-      <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t4))</f>
-        <v>0</v>
-      </c>
-      <c r="E3" cm="1">
-        <f t="array" aca="1" ref="E3" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t5))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" cm="1">
-        <f t="array" aca="1" ref="F3" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t6))</f>
-        <v>0</v>
-      </c>
-      <c r="G3" cm="1">
-        <f t="array" aca="1" ref="G3" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t7))</f>
-        <v>0</v>
-      </c>
-      <c r="H3" cm="1">
-        <f t="array" aca="1" ref="H3" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t8))</f>
-        <v>0</v>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t1)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B3">
+        <f ca="1">IFERROR(IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t2))),_t2)</f>
+        <v>384</v>
+      </c>
+      <c r="C3" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t3)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D3" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t4)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E3" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t5)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F3" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t6)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G3" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t7)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H3" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t8)))</f>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -1128,41 +1130,41 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" cm="1">
-        <f t="array" aca="1" ref="A5" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t9))</f>
-        <v>0</v>
-      </c>
-      <c r="B5" cm="1">
-        <f t="array" aca="1" ref="B5" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s0))</f>
-        <v>0</v>
-      </c>
-      <c r="C5" cm="1">
-        <f t="array" aca="1" ref="C5" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s1))</f>
-        <v>0</v>
-      </c>
-      <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s2))</f>
-        <v>0</v>
-      </c>
-      <c r="E5" cm="1">
-        <f t="array" aca="1" ref="E5" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s3))</f>
-        <v>0</v>
-      </c>
-      <c r="F5" cm="1">
-        <f t="array" aca="1" ref="F5" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s4))</f>
-        <v>0</v>
-      </c>
-      <c r="G5" cm="1">
-        <f t="array" aca="1" ref="G5" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s5))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" cm="1">
-        <f t="array" aca="1" ref="H5" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s6))</f>
-        <v>0</v>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t9)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B5" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s0)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C5" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s1)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s2)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s3)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F5" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s4)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s5)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H5" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s6)))</f>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1196,41 +1198,41 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" cm="1">
-        <f t="array" aca="1" ref="A7" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s7))</f>
-        <v>0</v>
-      </c>
-      <c r="B7" cm="1">
-        <f t="array" aca="1" ref="B7" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t8))</f>
-        <v>0</v>
-      </c>
-      <c r="C7" cm="1">
-        <f t="array" aca="1" ref="C7" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t9))</f>
-        <v>0</v>
-      </c>
-      <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_gp))</f>
-        <v>0</v>
-      </c>
-      <c r="E7" cm="1">
-        <f t="array" aca="1" ref="E7" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_sp))</f>
-        <v>0</v>
-      </c>
-      <c r="F7" cm="1">
-        <f t="array" aca="1" ref="F7" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_fp))</f>
-        <v>0</v>
-      </c>
-      <c r="G7" cm="1">
-        <f t="array" aca="1" ref="G7" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_ra))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" cm="1">
-        <f t="array" aca="1" ref="H7" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_pc))</f>
-        <v>0</v>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s7)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B7" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t8)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C7" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t9)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_gp)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E7" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_sp)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F7" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_fp)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G7" t="e">
+        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_ra)))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H7">
+        <f ca="1">IFERROR(IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_pc))),_pc)</f>
+        <v>1680</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -1264,13 +1266,13 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V14" t="s">
         <v>31</v>
       </c>
-      <c r="E15" cm="1">
-        <f t="array" aca="1" ref="E15" ca="1">_xlfn.SWITCH(OP,8,ADDI,12,ANDI,13,ORI,14,XORI,2,J,4,BEQ,5,BNE,34,LW,42,SW, 0, _xlfn.SWITCH(FNCT,32,ADD,34,SUB,24,MULT,26,DIV,36,AND,37,OR,38,XOR,0,SLL,2,SRL))</f>
-        <v>255</v>
+      <c r="W14" cm="1">
+        <f t="array" aca="1" ref="W14" ca="1">IFERROR(_xlfn.SWITCH(OP,8,ADDI,12,ANDI,13,ORI,14,XORI,2,J,4,BEQ,5,BNE,34,LW,42,SW, 0, _xlfn.SWITCH(FNCT,32,ADD,34,SUB,24,MULT,26,DIV,36,AND,37,OR,38,XOR,0,SLL,2,SRL)),ALU)</f>
+        <v>1680</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -1335,11 +1337,11 @@
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D18">
         <f ca="1">RTVAL+RSVAL</f>
-        <v>255</v>
+        <v>384</v>
       </c>
       <c r="E18">
         <f ca="1">RSVAL-RTVAL</f>
-        <v>-255</v>
+        <v>-384</v>
       </c>
       <c r="F18">
         <f ca="1">RSVAL*RTVAL</f>
@@ -1355,23 +1357,23 @@
       </c>
       <c r="I18">
         <f ca="1">_xlfn.BITOR(RSVAL,RTVAL)</f>
-        <v>255</v>
+        <v>384</v>
       </c>
       <c r="J18">
         <f ca="1">_xlfn.BITXOR(RSVAL,RTVAL)</f>
-        <v>255</v>
+        <v>384</v>
       </c>
       <c r="K18">
         <f ca="1">_xlfn.BITLSHIFT(RTVAL,SHMT)</f>
-        <v>255</v>
+        <v>384</v>
       </c>
       <c r="L18">
         <f ca="1">_xlfn.BITRSHIFT(RTVAL,SHMT)</f>
-        <v>255</v>
+        <v>384</v>
       </c>
       <c r="M18">
         <f ca="1">RSVAL+IMMD</f>
-        <v>255</v>
+        <v>384</v>
       </c>
       <c r="N18">
         <f ca="1">_xlfn.BITAND(RSVAL,IMMD)</f>
@@ -1379,31 +1381,31 @@
       </c>
       <c r="O18">
         <f ca="1">_xlfn.BITOR(RSVAL,IMMD)</f>
-        <v>255</v>
+        <v>384</v>
       </c>
       <c r="P18">
-        <f ca="1">_xlfn.BITXOR(RSVAL,IMMD)</f>
-        <v>255</v>
+        <f ca="1">IFERROR(_xlfn.BITXOR(RSVAL,IMMD),XORI)</f>
+        <v>384</v>
       </c>
       <c r="Q18">
         <f ca="1">_xlfn.BITOR(_xlfn.BITAND(_pc+4,4026531840),_xlfn.BITLSHIFT(JBITS,2))</f>
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="R18">
         <f ca="1">IF(RSVAL=RTVAL,_xlfn.BITLSHIFT(IMMD,2)+_pc+4,_pc+4)</f>
-        <v>4</v>
+        <v>1684</v>
       </c>
       <c r="S18">
         <f ca="1">IF(RSVAL&lt;&gt;RTVAL,_xlfn.BITLSHIFT(IMMD,2)+_pc+4,_pc+4)</f>
-        <v>1024</v>
-      </c>
-      <c r="T18" cm="1">
+        <v>3220</v>
+      </c>
+      <c r="T18" t="e" cm="1">
         <f t="array" aca="1" ref="T18" ca="1">INDIRECT(LWBASEADDR)+IMMD</f>
-        <v>255</v>
+        <v>#NAME?</v>
       </c>
       <c r="U18">
         <f ca="1">RTVAL</f>
-        <v>255</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -1471,7 +1473,7 @@
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <f ca="1">IF(CLR = 1, 0, $A$20 + 1)</f>
-        <v>1570</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -1480,14 +1482,14 @@
       </c>
       <c r="D22" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDIRECT(RTADDR)</f>
-        <v>255</v>
+        <v>384</v>
       </c>
       <c r="F22" t="s">
         <v>97</v>
       </c>
       <c r="G22" t="str">
         <f>ADDRESS(_xlfn.BITRSHIFT(REGWRITE,3)*2 + 1, 1+_xlfn.BITAND(REGWRITE,7))</f>
-        <v>$A$3</v>
+        <v>$H$7</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -1501,9 +1503,9 @@
       <c r="F23" t="s">
         <v>66</v>
       </c>
-      <c r="G23" cm="1">
-        <f t="array" ref="G23">IF(RFMT, RD, IF(IFMT,IF(_xlfn.BITRSHIFT(OP,3)=0,pc,RT),pc))</f>
-        <v>8</v>
+      <c r="G23">
+        <f>IF(RFMT, RD, IF(IFMT,IF(_xlfn.BITRSHIFT(OP,3)=0,31,RT),31))</f>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -1527,8 +1529,8 @@
         <v>23</v>
       </c>
       <c r="D27" t="str">
-        <f>ADDRESS(_xlfn.BITRSHIFT(RT,3)*2 + 1, 1+_xlfn.BITAND(RT,7))</f>
-        <v>$A$3</v>
+        <f ca="1">ADDRESS(_xlfn.BITRSHIFT(RT,3)*2 + 1, 1+_xlfn.BITAND(RT,7))</f>
+        <v>$B$3</v>
       </c>
       <c r="E27" t="s">
         <v>44</v>
@@ -1543,8 +1545,8 @@
         <v>22</v>
       </c>
       <c r="D28" t="str">
-        <f>ADDRESS(_xlfn.BITRSHIFT(RS,3)*2 + 1, 1+_xlfn.BITAND(RS,7))</f>
-        <v>$A$1</v>
+        <f ca="1">ADDRESS(_xlfn.BITRSHIFT(RS,3)*2 + 1, 1+_xlfn.BITAND(RS,7))</f>
+        <v>$E$1</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -1552,22 +1554,22 @@
         <v>25</v>
       </c>
       <c r="D31">
-        <f ca="1">IF(RFMT, _xlfn.BITAND(INSTR,127),$D$31)</f>
-        <v>32</v>
+        <f xml:space="preserve"> _xlfn.BITAND(INSTR,127)</f>
+        <v>36</v>
       </c>
       <c r="E31" t="s">
         <v>24</v>
       </c>
       <c r="F31">
-        <f>IF(IFMT,_xlfn.BITAND(INSTR,65535),IMMD)</f>
-        <v>255</v>
+        <f ca="1">IF(IFMT,_xlfn.BITAND(INSTR,65535),IMMD)</f>
+        <v>384</v>
       </c>
       <c r="G31" t="s">
         <v>43</v>
       </c>
       <c r="H31">
-        <f ca="1">IF(JFMT,_xlfn.BITAND(INSTR,134217727),JBITS)</f>
-        <v>0</v>
+        <f>IF(JFMT,_xlfn.BITAND(INSTR,134217727),JBITS)</f>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -1593,8 +1595,8 @@
         <v>28</v>
       </c>
       <c r="D34">
-        <f>IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,16),31),$D$34)</f>
-        <v>8</v>
+        <f ca="1">IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,16),31),$D$34)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -1602,17 +1604,17 @@
         <v>29</v>
       </c>
       <c r="D35">
-        <f>IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,21),31),$D$35)</f>
-        <v>0</v>
+        <f ca="1">IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,21),31),$D$35)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>537395455</v>
+        <v>134218148</v>
       </c>
       <c r="B36">
         <f>_xlfn.BITRSHIFT($A$36,26)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1637,11 +1639,11 @@
       </c>
       <c r="E37" t="b">
         <f>AND(NOT(RFMT),NOT(JFMT))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="b">
         <f>OR(OP=2,OP=3,OP=26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -18512,7 +18514,7 @@
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <f ca="1">IF($A$200 = 1,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B200" s="2">
         <v>0</v>

--- a/MIPCel.xlsx
+++ b/MIPCel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cooperterrill/Desktop/MIPCel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6E1333-781D-2740-85E8-418B973237FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CEDC96-61B3-1944-BA8F-285A7FA3A6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17100" yWindow="780" windowWidth="17100" windowHeight="19300" activeTab="1" xr2:uid="{95E4A03E-3FED-BF42-ACD2-5D2E65B33E92}"/>
   </bookViews>
@@ -71,6 +71,8 @@
     <definedName name="OP">CPU!$B$133</definedName>
     <definedName name="OR">CPU!$G$150</definedName>
     <definedName name="ORI">CPU!$M$150</definedName>
+    <definedName name="PCADDR">CPU!$A$131</definedName>
+    <definedName name="PCVAL">CPU!$B$131</definedName>
     <definedName name="RD">CPU!$D$138</definedName>
     <definedName name="RDADDR">CPU!$D$142</definedName>
     <definedName name="REGWRITE">CPU!$G$146</definedName>
@@ -1071,33 +1073,33 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <f ca="1">IF(CLR = 1, 0, $A$20 + 1)</f>
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M31">
         <f ca="1">$M$32 + 1</f>
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L32">
         <f ca="1">$M$32 + 1</f>
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="M32">
         <f ca="1">$A$20</f>
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <f ca="1">$M$32 + 1</f>
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M33">
         <f ca="1">$M$32 + 1</f>
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -1179,12 +1181,12 @@
     </row>
     <row r="49" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f>ADDRESS(_xlfn.BITRSHIFT(_xlfn.BITRSHIFT(_pc,2),6)+50,1+_xlfn.BITAND(_xlfn.BITRSHIFT(_pc,2),127))</f>
-        <v>$D$50</v>
+        <f ca="1">ADDRESS(_xlfn.BITRSHIFT(_xlfn.BITRSHIFT(_pc,2),6)+50,1+_xlfn.BITAND(_xlfn.BITRSHIFT(_pc,2),127))</f>
+        <v>$S$50</v>
       </c>
-      <c r="B49" t="str" cm="1">
+      <c r="B49" cm="1">
         <f t="array" aca="1" ref="B49" ca="1">INDIRECT($A$49)</f>
-        <v>yo</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:128" x14ac:dyDescent="0.2">
@@ -17976,8 +17978,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:DX167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G155" sqref="G155"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34634,13 +34636,13 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" t="e">
-        <f>ADDRESS(_xlfn.BITRSHIFT(_xlfn.BITRSHIFT(_pc,2),6),1+_xlfn.BITAND(_xlfn.BITRSHIFT(_pc,2),127))</f>
-        <v>#VALUE!</v>
+      <c r="A131" t="str">
+        <f ca="1">ADDRESS(_xlfn.BITRSHIFT(_xlfn.BITRSHIFT(_pc,2),6) + 1,1+_xlfn.BITAND(_xlfn.BITRSHIFT(_pc,2),127))</f>
+        <v>$R$1</v>
       </c>
-      <c r="B131" t="e" cm="1">
+      <c r="B131" cm="1">
         <f t="array" aca="1" ref="B131" ca="1">INDIRECT(PCADDR)</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -34931,11 +34933,11 @@
       </c>
       <c r="P150">
         <f ca="1">IF(RSVAL=RTVAL,_xlfn.BITLSHIFT(IMMD,2)+_pc+4,_pc+4)</f>
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="Q150">
         <f ca="1">IF(RSVAL&lt;&gt;RTVAL,_xlfn.BITLSHIFT(IMMD,2)+_pc+4,_pc+4)</f>
-        <v>8012</v>
+        <v>8068</v>
       </c>
       <c r="R150" cm="1">
         <f t="array" aca="1" ref="R150" ca="1">INDIRECT(LWBASEADDR)+IMMD</f>
@@ -35014,37 +35016,42 @@
         <v>1999</v>
       </c>
     </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J158">
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_v0),_v0))</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_zero)))</f>
         <v>0</v>
       </c>
       <c r="B160">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_v0)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_v0),_v0))</f>
         <v>0</v>
       </c>
       <c r="C160">
-        <f ca="1">IFERROR(IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_v1))),_v1)</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_v1),_v1))</f>
         <v>0</v>
       </c>
       <c r="D160">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a0)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a0),_a0))</f>
         <v>0</v>
       </c>
       <c r="E160">
-        <f ca="1">IFERROR(IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a1))),_a1)</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a1),_a1))</f>
         <v>0</v>
       </c>
       <c r="F160">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a2)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a2),_a2))</f>
         <v>0</v>
       </c>
       <c r="G160">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a3)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a3),_a3))</f>
         <v>0</v>
       </c>
       <c r="H160">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t0)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t0),_t0))</f>
         <v>0</v>
       </c>
     </row>
@@ -35076,35 +35083,35 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t1)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t1),_t1))</f>
         <v>0</v>
       </c>
       <c r="B162">
-        <f ca="1">IFERROR(IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t2))),_t2)</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t2),_t2))</f>
         <v>0</v>
       </c>
       <c r="C162">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t3)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t3),_t3))</f>
         <v>0</v>
       </c>
       <c r="D162">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t4)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t4),_t4))</f>
         <v>0</v>
       </c>
       <c r="E162">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t5)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t5),_t5))</f>
         <v>0</v>
       </c>
       <c r="F162">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t6)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t6),_t6))</f>
         <v>1999</v>
       </c>
       <c r="G162">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t7)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t7),_t7))</f>
         <v>0</v>
       </c>
       <c r="H162">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t8)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t8),_t8))</f>
         <v>0</v>
       </c>
     </row>
@@ -35136,35 +35143,35 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t9)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t9),_t9))</f>
         <v>0</v>
       </c>
       <c r="B164">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s0)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s0),_s0))</f>
         <v>0</v>
       </c>
       <c r="C164">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s1)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s1),_s1))</f>
         <v>0</v>
       </c>
       <c r="D164">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s2)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s2),_s2))</f>
         <v>0</v>
       </c>
       <c r="E164">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s3)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s3),_s3))</f>
         <v>0</v>
       </c>
       <c r="F164">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s4)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s4),_s4))</f>
         <v>0</v>
       </c>
       <c r="G164">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s5)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s5),_s5))</f>
         <v>0</v>
       </c>
       <c r="H164">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s6)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s6),_s6))</f>
         <v>0</v>
       </c>
     </row>
@@ -35196,35 +35203,36 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s7)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s7),_s7))</f>
         <v>0</v>
       </c>
       <c r="B166">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t8)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t8),_t8))</f>
         <v>0</v>
       </c>
       <c r="C166">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t9)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t9),_t9))</f>
         <v>0</v>
       </c>
       <c r="D166">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_gp)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_gp),_gp))</f>
         <v>0</v>
       </c>
       <c r="E166">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_sp)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_sp),_sp))</f>
         <v>0</v>
       </c>
       <c r="F166">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_fp)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_fp),_fp))</f>
         <v>0</v>
       </c>
       <c r="G166">
-        <f ca="1">IF(CLR,0,(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_ra)))</f>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_ra),_ra))</f>
         <v>0</v>
       </c>
       <c r="H166">
-        <v>12</v>
+        <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_pc+4),_pc))</f>
+        <v>72</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">

--- a/MIPCel.xlsx
+++ b/MIPCel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cooperterrill/Desktop/MIPCel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CEDC96-61B3-1944-BA8F-285A7FA3A6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC494252-792C-EC41-8179-36BACBCC15DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17100" yWindow="780" windowWidth="17100" windowHeight="19300" activeTab="1" xr2:uid="{95E4A03E-3FED-BF42-ACD2-5D2E65B33E92}"/>
   </bookViews>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
   <si>
     <t>SOURCE</t>
   </si>
@@ -527,12 +527,15 @@
   <si>
     <t>PCADDR</t>
   </si>
+  <si>
+    <t>OVRD?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -565,6 +568,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -635,6 +643,101 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$131" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>25400</xdr:colOff>
+          <xdr:row>132</xdr:row>
+          <xdr:rowOff>127000</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>215900</xdr:colOff>
+          <xdr:row>134</xdr:row>
+          <xdr:rowOff>101600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2064" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2064"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD954870-1035-1BCB-CC46-889CB8BF4F36}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1300" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Lucida Grande" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Lucida Grande" pitchFamily="2" charset="0"/>
+                </a:rPr>
+                <a:t>Check Box 16</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -987,7 +1090,7 @@
   <dimension ref="A1:DX178"/>
   <sheetViews>
     <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1073,33 +1176,33 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <f ca="1">IF(CLR = 1, 0, $A$20 + 1)</f>
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M31">
         <f ca="1">$M$32 + 1</f>
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L32">
         <f ca="1">$M$32 + 1</f>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="M32">
         <f ca="1">$A$20</f>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="N32">
         <f ca="1">$M$32 + 1</f>
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M33">
         <f ca="1">$M$32 + 1</f>
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -1182,7 +1285,7 @@
     <row r="49" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f ca="1">ADDRESS(_xlfn.BITRSHIFT(_xlfn.BITRSHIFT(_pc,2),6)+50,1+_xlfn.BITAND(_xlfn.BITRSHIFT(_pc,2),127))</f>
-        <v>$S$50</v>
+        <v>$C$50</v>
       </c>
       <c r="B49" cm="1">
         <f t="array" aca="1" ref="B49" ca="1">INDIRECT($A$49)</f>
@@ -17978,8 +18081,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:DX167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34634,11 +34737,14 @@
       <c r="B130" t="s">
         <v>98</v>
       </c>
+      <c r="D130" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
         <f ca="1">ADDRESS(_xlfn.BITRSHIFT(_xlfn.BITRSHIFT(_pc,2),6) + 1,1+_xlfn.BITAND(_xlfn.BITRSHIFT(_pc,2),127))</f>
-        <v>$R$1</v>
+        <v>$B$1</v>
       </c>
       <c r="B131" cm="1">
         <f t="array" aca="1" ref="B131" ca="1">INDIRECT(PCADDR)</f>
@@ -34646,8 +34752,9 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>946669519</v>
+      <c r="A133" t="e" cm="1">
+        <f t="array" aca="1" ref="A133" ca="1">IF(OVRD, OVRDVAL,PCVAL)</f>
+        <v>#NAME?</v>
       </c>
       <c r="B133">
         <f>_xlfn.BITRSHIFT($A$133,26)</f>
@@ -34933,11 +35040,11 @@
       </c>
       <c r="P150">
         <f ca="1">IF(RSVAL=RTVAL,_xlfn.BITLSHIFT(IMMD,2)+_pc+4,_pc+4)</f>
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="Q150">
         <f ca="1">IF(RSVAL&lt;&gt;RTVAL,_xlfn.BITLSHIFT(IMMD,2)+_pc+4,_pc+4)</f>
-        <v>8068</v>
+        <v>8004</v>
       </c>
       <c r="R150" cm="1">
         <f t="array" aca="1" ref="R150" ca="1">INDIRECT(LWBASEADDR)+IMMD</f>
@@ -35232,7 +35339,7 @@
       </c>
       <c r="H166">
         <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_pc+4),_pc))</f>
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -35264,6 +35371,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2064" r:id="rId3" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:row>132</xdr:row>
+                    <xdr:rowOff>127000</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>215900</xdr:colOff>
+                    <xdr:row>134</xdr:row>
+                    <xdr:rowOff>101600</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/MIPCel.xlsx
+++ b/MIPCel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cooperterrill/Desktop/MIPCel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC494252-792C-EC41-8179-36BACBCC15DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDBDA36-B2BD-E34F-88B0-FB285EDC6FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17100" yWindow="780" windowWidth="17100" windowHeight="19300" activeTab="1" xr2:uid="{95E4A03E-3FED-BF42-ACD2-5D2E65B33E92}"/>
   </bookViews>
@@ -71,6 +71,8 @@
     <definedName name="OP">CPU!$B$133</definedName>
     <definedName name="OR">CPU!$G$150</definedName>
     <definedName name="ORI">CPU!$M$150</definedName>
+    <definedName name="OVRD?">CPU!$D$131</definedName>
+    <definedName name="OVRDVAL">CPU!$F$131</definedName>
     <definedName name="PCADDR">CPU!$A$131</definedName>
     <definedName name="PCVAL">CPU!$B$131</definedName>
     <definedName name="RD">CPU!$D$138</definedName>
@@ -226,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="102">
   <si>
     <t>SOURCE</t>
   </si>
@@ -530,12 +532,15 @@
   <si>
     <t>OVRD?</t>
   </si>
+  <si>
+    <t>OVRDVAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -570,9 +575,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
-      <name val="Lucida Grande"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="4">
@@ -655,16 +659,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
-          <xdr:row>132</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>127</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>215900</xdr:colOff>
-          <xdr:row>134</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>129</xdr:row>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -712,25 +716,6 @@
               </a:ext>
             </a:extLst>
           </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1300" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande" pitchFamily="2" charset="0"/>
-                  <a:cs typeface="Lucida Grande" pitchFamily="2" charset="0"/>
-                </a:rPr>
-                <a:t>Check Box 16</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
@@ -1090,10 +1075,10 @@
   <dimension ref="A1:DX178"/>
   <sheetViews>
     <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
@@ -1106,10 +1091,10 @@
     <col min="20" max="20" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="2">
         <f ca="1">IF($A$1 = 1,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -1118,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1135,10 +1120,10 @@
       <c r="P2" s="3"/>
       <c r="T2">
         <f ca="1">CLK</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1148,7 +1133,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1158,7 +1143,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1168,44 +1153,44 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20">
         <f ca="1">IF(CLR = 1, 0, $A$20 + 1)</f>
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="M31">
         <f ca="1">$M$32 + 1</f>
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="L32">
         <f ca="1">$M$32 + 1</f>
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="M32">
         <f ca="1">$A$20</f>
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <f ca="1">$M$32 + 1</f>
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="M33">
         <f ca="1">$M$32 + 1</f>
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="H43" t="s">
         <v>18</v>
       </c>
@@ -1213,12 +1198,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1247,7 +1232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="G46">
         <v>4</v>
       </c>
@@ -1274,7 +1259,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1282,17 +1267,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:128">
       <c r="A49" t="str">
         <f ca="1">ADDRESS(_xlfn.BITRSHIFT(_xlfn.BITRSHIFT(_pc,2),6)+50,1+_xlfn.BITAND(_xlfn.BITRSHIFT(_pc,2),127))</f>
-        <v>$C$50</v>
+        <v>$AL$50</v>
       </c>
       <c r="B49" cm="1">
         <f t="array" aca="1" ref="B49" ca="1">INDIRECT($A$49)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:128">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1428,7 +1413,7 @@
       <c r="DW50" s="2"/>
       <c r="DX50" s="2"/>
     </row>
-    <row r="51" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:128">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>9</v>
@@ -1560,7 +1545,7 @@
       <c r="DW51" s="2"/>
       <c r="DX51" s="2"/>
     </row>
-    <row r="52" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:128">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1690,7 +1675,7 @@
       <c r="DW52" s="2"/>
       <c r="DX52" s="2"/>
     </row>
-    <row r="53" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:128">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1820,7 +1805,7 @@
       <c r="DW53" s="2"/>
       <c r="DX53" s="2"/>
     </row>
-    <row r="54" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:128">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1950,7 +1935,7 @@
       <c r="DW54" s="2"/>
       <c r="DX54" s="2"/>
     </row>
-    <row r="55" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:128">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2080,7 +2065,7 @@
       <c r="DW55" s="2"/>
       <c r="DX55" s="2"/>
     </row>
-    <row r="56" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:128">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2210,7 +2195,7 @@
       <c r="DW56" s="2"/>
       <c r="DX56" s="2"/>
     </row>
-    <row r="57" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:128">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2340,7 +2325,7 @@
       <c r="DW57" s="2"/>
       <c r="DX57" s="2"/>
     </row>
-    <row r="58" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:128">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2470,7 +2455,7 @@
       <c r="DW58" s="2"/>
       <c r="DX58" s="2"/>
     </row>
-    <row r="59" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:128">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2600,7 +2585,7 @@
       <c r="DW59" s="2"/>
       <c r="DX59" s="2"/>
     </row>
-    <row r="60" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:128">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2730,7 +2715,7 @@
       <c r="DW60" s="2"/>
       <c r="DX60" s="2"/>
     </row>
-    <row r="61" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:128">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2860,7 +2845,7 @@
       <c r="DW61" s="2"/>
       <c r="DX61" s="2"/>
     </row>
-    <row r="62" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:128">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2990,7 +2975,7 @@
       <c r="DW62" s="2"/>
       <c r="DX62" s="2"/>
     </row>
-    <row r="63" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:128">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3120,7 +3105,7 @@
       <c r="DW63" s="2"/>
       <c r="DX63" s="2"/>
     </row>
-    <row r="64" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:128">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3250,7 +3235,7 @@
       <c r="DW64" s="2"/>
       <c r="DX64" s="2"/>
     </row>
-    <row r="65" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:128">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3380,7 +3365,7 @@
       <c r="DW65" s="2"/>
       <c r="DX65" s="2"/>
     </row>
-    <row r="66" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:128">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3510,7 +3495,7 @@
       <c r="DW66" s="2"/>
       <c r="DX66" s="2"/>
     </row>
-    <row r="67" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:128">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3640,7 +3625,7 @@
       <c r="DW67" s="2"/>
       <c r="DX67" s="2"/>
     </row>
-    <row r="68" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:128">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3770,7 +3755,7 @@
       <c r="DW68" s="2"/>
       <c r="DX68" s="2"/>
     </row>
-    <row r="69" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:128">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3900,7 +3885,7 @@
       <c r="DW69" s="2"/>
       <c r="DX69" s="2"/>
     </row>
-    <row r="70" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:128">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4030,7 +4015,7 @@
       <c r="DW70" s="2"/>
       <c r="DX70" s="2"/>
     </row>
-    <row r="71" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:128">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4160,7 +4145,7 @@
       <c r="DW71" s="2"/>
       <c r="DX71" s="2"/>
     </row>
-    <row r="72" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:128">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4290,7 +4275,7 @@
       <c r="DW72" s="2"/>
       <c r="DX72" s="2"/>
     </row>
-    <row r="73" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:128">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4420,7 +4405,7 @@
       <c r="DW73" s="2"/>
       <c r="DX73" s="2"/>
     </row>
-    <row r="74" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:128">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4550,7 +4535,7 @@
       <c r="DW74" s="2"/>
       <c r="DX74" s="2"/>
     </row>
-    <row r="75" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:128">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4680,7 +4665,7 @@
       <c r="DW75" s="2"/>
       <c r="DX75" s="2"/>
     </row>
-    <row r="76" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:128">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4810,7 +4795,7 @@
       <c r="DW76" s="2"/>
       <c r="DX76" s="2"/>
     </row>
-    <row r="77" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:128">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4940,7 +4925,7 @@
       <c r="DW77" s="2"/>
       <c r="DX77" s="2"/>
     </row>
-    <row r="78" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:128">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5070,7 +5055,7 @@
       <c r="DW78" s="2"/>
       <c r="DX78" s="2"/>
     </row>
-    <row r="79" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:128">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5200,7 +5185,7 @@
       <c r="DW79" s="2"/>
       <c r="DX79" s="2"/>
     </row>
-    <row r="80" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:128">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5330,7 +5315,7 @@
       <c r="DW80" s="2"/>
       <c r="DX80" s="2"/>
     </row>
-    <row r="81" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:128">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5460,7 +5445,7 @@
       <c r="DW81" s="2"/>
       <c r="DX81" s="2"/>
     </row>
-    <row r="82" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:128">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5590,7 +5575,7 @@
       <c r="DW82" s="2"/>
       <c r="DX82" s="2"/>
     </row>
-    <row r="83" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:128">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5720,7 +5705,7 @@
       <c r="DW83" s="2"/>
       <c r="DX83" s="2"/>
     </row>
-    <row r="84" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:128">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5850,7 +5835,7 @@
       <c r="DW84" s="2"/>
       <c r="DX84" s="2"/>
     </row>
-    <row r="85" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:128">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5980,7 +5965,7 @@
       <c r="DW85" s="2"/>
       <c r="DX85" s="2"/>
     </row>
-    <row r="86" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:128">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6110,7 +6095,7 @@
       <c r="DW86" s="2"/>
       <c r="DX86" s="2"/>
     </row>
-    <row r="87" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:128">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -6240,7 +6225,7 @@
       <c r="DW87" s="2"/>
       <c r="DX87" s="2"/>
     </row>
-    <row r="88" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:128">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -6370,7 +6355,7 @@
       <c r="DW88" s="2"/>
       <c r="DX88" s="2"/>
     </row>
-    <row r="89" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:128">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -6500,7 +6485,7 @@
       <c r="DW89" s="2"/>
       <c r="DX89" s="2"/>
     </row>
-    <row r="90" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:128">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -6630,7 +6615,7 @@
       <c r="DW90" s="2"/>
       <c r="DX90" s="2"/>
     </row>
-    <row r="91" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:128">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -6760,7 +6745,7 @@
       <c r="DW91" s="2"/>
       <c r="DX91" s="2"/>
     </row>
-    <row r="92" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:128">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -6890,7 +6875,7 @@
       <c r="DW92" s="2"/>
       <c r="DX92" s="2"/>
     </row>
-    <row r="93" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:128">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -7020,7 +7005,7 @@
       <c r="DW93" s="2"/>
       <c r="DX93" s="2"/>
     </row>
-    <row r="94" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:128">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -7150,7 +7135,7 @@
       <c r="DW94" s="2"/>
       <c r="DX94" s="2"/>
     </row>
-    <row r="95" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:128">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -7280,7 +7265,7 @@
       <c r="DW95" s="2"/>
       <c r="DX95" s="2"/>
     </row>
-    <row r="96" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:128">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -7410,7 +7395,7 @@
       <c r="DW96" s="2"/>
       <c r="DX96" s="2"/>
     </row>
-    <row r="97" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:128">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -7540,7 +7525,7 @@
       <c r="DW97" s="2"/>
       <c r="DX97" s="2"/>
     </row>
-    <row r="98" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:128">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -7670,7 +7655,7 @@
       <c r="DW98" s="2"/>
       <c r="DX98" s="2"/>
     </row>
-    <row r="99" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:128">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -7800,7 +7785,7 @@
       <c r="DW99" s="2"/>
       <c r="DX99" s="2"/>
     </row>
-    <row r="100" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:128">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -7930,7 +7915,7 @@
       <c r="DW100" s="2"/>
       <c r="DX100" s="2"/>
     </row>
-    <row r="101" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:128">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -8060,7 +8045,7 @@
       <c r="DW101" s="2"/>
       <c r="DX101" s="2"/>
     </row>
-    <row r="102" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:128">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -8190,7 +8175,7 @@
       <c r="DW102" s="2"/>
       <c r="DX102" s="2"/>
     </row>
-    <row r="103" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:128">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -8320,7 +8305,7 @@
       <c r="DW103" s="2"/>
       <c r="DX103" s="2"/>
     </row>
-    <row r="104" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:128">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -8450,7 +8435,7 @@
       <c r="DW104" s="2"/>
       <c r="DX104" s="2"/>
     </row>
-    <row r="105" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:128">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -8580,7 +8565,7 @@
       <c r="DW105" s="2"/>
       <c r="DX105" s="2"/>
     </row>
-    <row r="106" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:128">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -8710,7 +8695,7 @@
       <c r="DW106" s="2"/>
       <c r="DX106" s="2"/>
     </row>
-    <row r="107" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:128">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -8840,7 +8825,7 @@
       <c r="DW107" s="2"/>
       <c r="DX107" s="2"/>
     </row>
-    <row r="108" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:128">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -8970,7 +8955,7 @@
       <c r="DW108" s="2"/>
       <c r="DX108" s="2"/>
     </row>
-    <row r="109" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:128">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -9100,7 +9085,7 @@
       <c r="DW109" s="2"/>
       <c r="DX109" s="2"/>
     </row>
-    <row r="110" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:128">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -9230,7 +9215,7 @@
       <c r="DW110" s="2"/>
       <c r="DX110" s="2"/>
     </row>
-    <row r="111" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:128">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -9360,7 +9345,7 @@
       <c r="DW111" s="2"/>
       <c r="DX111" s="2"/>
     </row>
-    <row r="112" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:128">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -9490,7 +9475,7 @@
       <c r="DW112" s="2"/>
       <c r="DX112" s="2"/>
     </row>
-    <row r="113" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:128">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -9620,7 +9605,7 @@
       <c r="DW113" s="2"/>
       <c r="DX113" s="2"/>
     </row>
-    <row r="114" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:128">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -9750,7 +9735,7 @@
       <c r="DW114" s="2"/>
       <c r="DX114" s="2"/>
     </row>
-    <row r="115" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:128">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -9880,7 +9865,7 @@
       <c r="DW115" s="2"/>
       <c r="DX115" s="2"/>
     </row>
-    <row r="116" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:128">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -10010,7 +9995,7 @@
       <c r="DW116" s="2"/>
       <c r="DX116" s="2"/>
     </row>
-    <row r="117" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:128">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -10140,7 +10125,7 @@
       <c r="DW117" s="2"/>
       <c r="DX117" s="2"/>
     </row>
-    <row r="118" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:128">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -10270,7 +10255,7 @@
       <c r="DW118" s="2"/>
       <c r="DX118" s="2"/>
     </row>
-    <row r="119" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:128">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -10400,7 +10385,7 @@
       <c r="DW119" s="2"/>
       <c r="DX119" s="2"/>
     </row>
-    <row r="120" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:128">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -10530,7 +10515,7 @@
       <c r="DW120" s="2"/>
       <c r="DX120" s="2"/>
     </row>
-    <row r="121" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:128">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -10660,7 +10645,7 @@
       <c r="DW121" s="2"/>
       <c r="DX121" s="2"/>
     </row>
-    <row r="122" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:128">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -10790,7 +10775,7 @@
       <c r="DW122" s="2"/>
       <c r="DX122" s="2"/>
     </row>
-    <row r="123" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:128">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -10920,7 +10905,7 @@
       <c r="DW123" s="2"/>
       <c r="DX123" s="2"/>
     </row>
-    <row r="124" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:128">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -11050,7 +11035,7 @@
       <c r="DW124" s="2"/>
       <c r="DX124" s="2"/>
     </row>
-    <row r="125" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:128">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -11180,7 +11165,7 @@
       <c r="DW125" s="2"/>
       <c r="DX125" s="2"/>
     </row>
-    <row r="126" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:128">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -11310,7 +11295,7 @@
       <c r="DW126" s="2"/>
       <c r="DX126" s="2"/>
     </row>
-    <row r="127" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:128">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -11440,7 +11425,7 @@
       <c r="DW127" s="2"/>
       <c r="DX127" s="2"/>
     </row>
-    <row r="128" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:128">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -11570,7 +11555,7 @@
       <c r="DW128" s="2"/>
       <c r="DX128" s="2"/>
     </row>
-    <row r="129" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:128">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -11700,7 +11685,7 @@
       <c r="DW129" s="2"/>
       <c r="DX129" s="2"/>
     </row>
-    <row r="130" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:128">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -11830,7 +11815,7 @@
       <c r="DW130" s="2"/>
       <c r="DX130" s="2"/>
     </row>
-    <row r="131" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:128">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -11960,7 +11945,7 @@
       <c r="DW131" s="2"/>
       <c r="DX131" s="2"/>
     </row>
-    <row r="132" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:128">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -12090,7 +12075,7 @@
       <c r="DW132" s="2"/>
       <c r="DX132" s="2"/>
     </row>
-    <row r="133" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:128">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -12220,7 +12205,7 @@
       <c r="DW133" s="2"/>
       <c r="DX133" s="2"/>
     </row>
-    <row r="134" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:128">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -12350,7 +12335,7 @@
       <c r="DW134" s="2"/>
       <c r="DX134" s="2"/>
     </row>
-    <row r="135" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:128">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -12480,7 +12465,7 @@
       <c r="DW135" s="2"/>
       <c r="DX135" s="2"/>
     </row>
-    <row r="136" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:128">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -12610,7 +12595,7 @@
       <c r="DW136" s="2"/>
       <c r="DX136" s="2"/>
     </row>
-    <row r="137" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:128">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -12740,7 +12725,7 @@
       <c r="DW137" s="2"/>
       <c r="DX137" s="2"/>
     </row>
-    <row r="138" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:128">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -12870,7 +12855,7 @@
       <c r="DW138" s="2"/>
       <c r="DX138" s="2"/>
     </row>
-    <row r="139" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:128">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -13000,7 +12985,7 @@
       <c r="DW139" s="2"/>
       <c r="DX139" s="2"/>
     </row>
-    <row r="140" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:128">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -13130,7 +13115,7 @@
       <c r="DW140" s="2"/>
       <c r="DX140" s="2"/>
     </row>
-    <row r="141" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:128">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -13260,7 +13245,7 @@
       <c r="DW141" s="2"/>
       <c r="DX141" s="2"/>
     </row>
-    <row r="142" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:128">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -13390,7 +13375,7 @@
       <c r="DW142" s="2"/>
       <c r="DX142" s="2"/>
     </row>
-    <row r="143" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:128">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -13520,7 +13505,7 @@
       <c r="DW143" s="2"/>
       <c r="DX143" s="2"/>
     </row>
-    <row r="144" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:128">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -13650,7 +13635,7 @@
       <c r="DW144" s="2"/>
       <c r="DX144" s="2"/>
     </row>
-    <row r="145" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:128">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -13780,7 +13765,7 @@
       <c r="DW145" s="2"/>
       <c r="DX145" s="2"/>
     </row>
-    <row r="146" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:128">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -13910,7 +13895,7 @@
       <c r="DW146" s="2"/>
       <c r="DX146" s="2"/>
     </row>
-    <row r="147" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:128">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -14040,7 +14025,7 @@
       <c r="DW147" s="2"/>
       <c r="DX147" s="2"/>
     </row>
-    <row r="148" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:128">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -14170,7 +14155,7 @@
       <c r="DW148" s="2"/>
       <c r="DX148" s="2"/>
     </row>
-    <row r="149" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:128">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -14300,7 +14285,7 @@
       <c r="DW149" s="2"/>
       <c r="DX149" s="2"/>
     </row>
-    <row r="150" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:128">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -14430,7 +14415,7 @@
       <c r="DW150" s="2"/>
       <c r="DX150" s="2"/>
     </row>
-    <row r="151" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:128">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -14560,7 +14545,7 @@
       <c r="DW151" s="2"/>
       <c r="DX151" s="2"/>
     </row>
-    <row r="152" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:128">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -14690,7 +14675,7 @@
       <c r="DW152" s="2"/>
       <c r="DX152" s="2"/>
     </row>
-    <row r="153" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:128">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -14820,7 +14805,7 @@
       <c r="DW153" s="2"/>
       <c r="DX153" s="2"/>
     </row>
-    <row r="154" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:128">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -14950,7 +14935,7 @@
       <c r="DW154" s="2"/>
       <c r="DX154" s="2"/>
     </row>
-    <row r="155" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:128">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -15080,7 +15065,7 @@
       <c r="DW155" s="2"/>
       <c r="DX155" s="2"/>
     </row>
-    <row r="156" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:128">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -15210,7 +15195,7 @@
       <c r="DW156" s="2"/>
       <c r="DX156" s="2"/>
     </row>
-    <row r="157" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:128">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -15340,7 +15325,7 @@
       <c r="DW157" s="2"/>
       <c r="DX157" s="2"/>
     </row>
-    <row r="158" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:128">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -15470,7 +15455,7 @@
       <c r="DW158" s="2"/>
       <c r="DX158" s="2"/>
     </row>
-    <row r="159" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:128">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -15600,7 +15585,7 @@
       <c r="DW159" s="2"/>
       <c r="DX159" s="2"/>
     </row>
-    <row r="160" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:128">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -15730,7 +15715,7 @@
       <c r="DW160" s="2"/>
       <c r="DX160" s="2"/>
     </row>
-    <row r="161" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:128">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -15860,7 +15845,7 @@
       <c r="DW161" s="2"/>
       <c r="DX161" s="2"/>
     </row>
-    <row r="162" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:128">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -15990,7 +15975,7 @@
       <c r="DW162" s="2"/>
       <c r="DX162" s="2"/>
     </row>
-    <row r="163" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:128">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -16120,7 +16105,7 @@
       <c r="DW163" s="2"/>
       <c r="DX163" s="2"/>
     </row>
-    <row r="164" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:128">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -16250,7 +16235,7 @@
       <c r="DW164" s="2"/>
       <c r="DX164" s="2"/>
     </row>
-    <row r="165" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:128">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -16380,7 +16365,7 @@
       <c r="DW165" s="2"/>
       <c r="DX165" s="2"/>
     </row>
-    <row r="166" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:128">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -16510,7 +16495,7 @@
       <c r="DW166" s="2"/>
       <c r="DX166" s="2"/>
     </row>
-    <row r="167" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:128">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -16640,7 +16625,7 @@
       <c r="DW167" s="2"/>
       <c r="DX167" s="2"/>
     </row>
-    <row r="168" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:128">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -16770,7 +16755,7 @@
       <c r="DW168" s="2"/>
       <c r="DX168" s="2"/>
     </row>
-    <row r="169" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:128">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -16900,7 +16885,7 @@
       <c r="DW169" s="2"/>
       <c r="DX169" s="2"/>
     </row>
-    <row r="170" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:128">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -17030,7 +17015,7 @@
       <c r="DW170" s="2"/>
       <c r="DX170" s="2"/>
     </row>
-    <row r="171" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:128">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -17160,7 +17145,7 @@
       <c r="DW171" s="2"/>
       <c r="DX171" s="2"/>
     </row>
-    <row r="172" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:128">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -17290,7 +17275,7 @@
       <c r="DW172" s="2"/>
       <c r="DX172" s="2"/>
     </row>
-    <row r="173" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:128">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -17420,7 +17405,7 @@
       <c r="DW173" s="2"/>
       <c r="DX173" s="2"/>
     </row>
-    <row r="174" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:128">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -17550,7 +17535,7 @@
       <c r="DW174" s="2"/>
       <c r="DX174" s="2"/>
     </row>
-    <row r="175" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:128">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -17680,7 +17665,7 @@
       <c r="DW175" s="2"/>
       <c r="DX175" s="2"/>
     </row>
-    <row r="176" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:128">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -17810,7 +17795,7 @@
       <c r="DW176" s="2"/>
       <c r="DX176" s="2"/>
     </row>
-    <row r="177" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:128">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -17940,7 +17925,7 @@
       <c r="DW177" s="2"/>
       <c r="DX177" s="2"/>
     </row>
-    <row r="178" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:128">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -18081,16 +18066,17 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:DX167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H130" sqref="H130"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M138" sqref="M138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:128">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -18220,7 +18206,7 @@
       <c r="DW1" s="4"/>
       <c r="DX1" s="4"/>
     </row>
-    <row r="2" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:128">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -18350,7 +18336,7 @@
       <c r="DW2" s="4"/>
       <c r="DX2" s="4"/>
     </row>
-    <row r="3" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:128">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -18480,7 +18466,7 @@
       <c r="DW3" s="4"/>
       <c r="DX3" s="4"/>
     </row>
-    <row r="4" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:128">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -18610,7 +18596,7 @@
       <c r="DW4" s="4"/>
       <c r="DX4" s="4"/>
     </row>
-    <row r="5" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:128">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -18740,7 +18726,7 @@
       <c r="DW5" s="4"/>
       <c r="DX5" s="4"/>
     </row>
-    <row r="6" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:128">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -18870,7 +18856,7 @@
       <c r="DW6" s="4"/>
       <c r="DX6" s="4"/>
     </row>
-    <row r="7" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:128">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -19000,7 +18986,7 @@
       <c r="DW7" s="4"/>
       <c r="DX7" s="4"/>
     </row>
-    <row r="8" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:128">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -19130,7 +19116,7 @@
       <c r="DW8" s="4"/>
       <c r="DX8" s="4"/>
     </row>
-    <row r="9" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:128">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -19260,7 +19246,7 @@
       <c r="DW9" s="4"/>
       <c r="DX9" s="4"/>
     </row>
-    <row r="10" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:128">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -19390,7 +19376,7 @@
       <c r="DW10" s="4"/>
       <c r="DX10" s="4"/>
     </row>
-    <row r="11" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:128">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -19520,7 +19506,7 @@
       <c r="DW11" s="4"/>
       <c r="DX11" s="4"/>
     </row>
-    <row r="12" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:128">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -19650,7 +19636,7 @@
       <c r="DW12" s="4"/>
       <c r="DX12" s="4"/>
     </row>
-    <row r="13" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:128">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -19780,7 +19766,7 @@
       <c r="DW13" s="4"/>
       <c r="DX13" s="4"/>
     </row>
-    <row r="14" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:128">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -19910,7 +19896,7 @@
       <c r="DW14" s="4"/>
       <c r="DX14" s="4"/>
     </row>
-    <row r="15" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:128">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -20040,7 +20026,7 @@
       <c r="DW15" s="4"/>
       <c r="DX15" s="4"/>
     </row>
-    <row r="16" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:128">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -20170,7 +20156,7 @@
       <c r="DW16" s="4"/>
       <c r="DX16" s="4"/>
     </row>
-    <row r="17" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:128">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -20300,7 +20286,7 @@
       <c r="DW17" s="4"/>
       <c r="DX17" s="4"/>
     </row>
-    <row r="18" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:128">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -20430,7 +20416,7 @@
       <c r="DW18" s="4"/>
       <c r="DX18" s="4"/>
     </row>
-    <row r="19" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:128">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -20560,7 +20546,7 @@
       <c r="DW19" s="4"/>
       <c r="DX19" s="4"/>
     </row>
-    <row r="20" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:128">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -20690,7 +20676,7 @@
       <c r="DW20" s="4"/>
       <c r="DX20" s="4"/>
     </row>
-    <row r="21" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:128">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -20820,7 +20806,7 @@
       <c r="DW21" s="4"/>
       <c r="DX21" s="4"/>
     </row>
-    <row r="22" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:128">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -20950,7 +20936,7 @@
       <c r="DW22" s="4"/>
       <c r="DX22" s="4"/>
     </row>
-    <row r="23" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:128">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -21080,7 +21066,7 @@
       <c r="DW23" s="4"/>
       <c r="DX23" s="4"/>
     </row>
-    <row r="24" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:128">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -21210,7 +21196,7 @@
       <c r="DW24" s="4"/>
       <c r="DX24" s="4"/>
     </row>
-    <row r="25" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:128">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -21340,7 +21326,7 @@
       <c r="DW25" s="4"/>
       <c r="DX25" s="4"/>
     </row>
-    <row r="26" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:128">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -21470,7 +21456,7 @@
       <c r="DW26" s="4"/>
       <c r="DX26" s="4"/>
     </row>
-    <row r="27" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:128">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -21600,7 +21586,7 @@
       <c r="DW27" s="4"/>
       <c r="DX27" s="4"/>
     </row>
-    <row r="28" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:128">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -21730,7 +21716,7 @@
       <c r="DW28" s="4"/>
       <c r="DX28" s="4"/>
     </row>
-    <row r="29" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:128">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -21860,7 +21846,7 @@
       <c r="DW29" s="4"/>
       <c r="DX29" s="4"/>
     </row>
-    <row r="30" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:128">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -21990,7 +21976,7 @@
       <c r="DW30" s="4"/>
       <c r="DX30" s="4"/>
     </row>
-    <row r="31" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:128">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -22120,7 +22106,7 @@
       <c r="DW31" s="4"/>
       <c r="DX31" s="4"/>
     </row>
-    <row r="32" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:128">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -22250,7 +22236,7 @@
       <c r="DW32" s="4"/>
       <c r="DX32" s="4"/>
     </row>
-    <row r="33" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:128">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -22380,7 +22366,7 @@
       <c r="DW33" s="4"/>
       <c r="DX33" s="4"/>
     </row>
-    <row r="34" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:128">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -22510,7 +22496,7 @@
       <c r="DW34" s="4"/>
       <c r="DX34" s="4"/>
     </row>
-    <row r="35" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:128">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -22640,7 +22626,7 @@
       <c r="DW35" s="4"/>
       <c r="DX35" s="4"/>
     </row>
-    <row r="36" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:128">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -22770,7 +22756,7 @@
       <c r="DW36" s="4"/>
       <c r="DX36" s="4"/>
     </row>
-    <row r="37" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:128">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -22900,7 +22886,7 @@
       <c r="DW37" s="4"/>
       <c r="DX37" s="4"/>
     </row>
-    <row r="38" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:128">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -23030,7 +23016,7 @@
       <c r="DW38" s="4"/>
       <c r="DX38" s="4"/>
     </row>
-    <row r="39" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:128">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -23160,7 +23146,7 @@
       <c r="DW39" s="4"/>
       <c r="DX39" s="4"/>
     </row>
-    <row r="40" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:128">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -23290,7 +23276,7 @@
       <c r="DW40" s="4"/>
       <c r="DX40" s="4"/>
     </row>
-    <row r="41" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:128">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -23420,7 +23406,7 @@
       <c r="DW41" s="4"/>
       <c r="DX41" s="4"/>
     </row>
-    <row r="42" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:128">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -23550,7 +23536,7 @@
       <c r="DW42" s="4"/>
       <c r="DX42" s="4"/>
     </row>
-    <row r="43" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:128">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -23680,7 +23666,7 @@
       <c r="DW43" s="4"/>
       <c r="DX43" s="4"/>
     </row>
-    <row r="44" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:128">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -23810,7 +23796,7 @@
       <c r="DW44" s="4"/>
       <c r="DX44" s="4"/>
     </row>
-    <row r="45" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:128">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -23940,7 +23926,7 @@
       <c r="DW45" s="4"/>
       <c r="DX45" s="4"/>
     </row>
-    <row r="46" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:128">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -24070,7 +24056,7 @@
       <c r="DW46" s="4"/>
       <c r="DX46" s="4"/>
     </row>
-    <row r="47" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:128">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -24200,7 +24186,7 @@
       <c r="DW47" s="4"/>
       <c r="DX47" s="4"/>
     </row>
-    <row r="48" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:128">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -24330,7 +24316,7 @@
       <c r="DW48" s="4"/>
       <c r="DX48" s="4"/>
     </row>
-    <row r="49" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:128">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -24460,7 +24446,7 @@
       <c r="DW49" s="4"/>
       <c r="DX49" s="4"/>
     </row>
-    <row r="50" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:128">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -24590,7 +24576,7 @@
       <c r="DW50" s="4"/>
       <c r="DX50" s="4"/>
     </row>
-    <row r="51" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:128">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -24720,7 +24706,7 @@
       <c r="DW51" s="4"/>
       <c r="DX51" s="4"/>
     </row>
-    <row r="52" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:128">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -24850,7 +24836,7 @@
       <c r="DW52" s="4"/>
       <c r="DX52" s="4"/>
     </row>
-    <row r="53" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:128">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -24980,7 +24966,7 @@
       <c r="DW53" s="4"/>
       <c r="DX53" s="4"/>
     </row>
-    <row r="54" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:128">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -25110,7 +25096,7 @@
       <c r="DW54" s="4"/>
       <c r="DX54" s="4"/>
     </row>
-    <row r="55" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:128">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -25240,7 +25226,7 @@
       <c r="DW55" s="4"/>
       <c r="DX55" s="4"/>
     </row>
-    <row r="56" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:128">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -25370,7 +25356,7 @@
       <c r="DW56" s="4"/>
       <c r="DX56" s="4"/>
     </row>
-    <row r="57" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:128">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -25500,7 +25486,7 @@
       <c r="DW57" s="4"/>
       <c r="DX57" s="4"/>
     </row>
-    <row r="58" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:128">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -25630,7 +25616,7 @@
       <c r="DW58" s="4"/>
       <c r="DX58" s="4"/>
     </row>
-    <row r="59" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:128">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -25760,7 +25746,7 @@
       <c r="DW59" s="4"/>
       <c r="DX59" s="4"/>
     </row>
-    <row r="60" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:128">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -25890,7 +25876,7 @@
       <c r="DW60" s="4"/>
       <c r="DX60" s="4"/>
     </row>
-    <row r="61" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:128">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -26020,7 +26006,7 @@
       <c r="DW61" s="4"/>
       <c r="DX61" s="4"/>
     </row>
-    <row r="62" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:128">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -26150,7 +26136,7 @@
       <c r="DW62" s="4"/>
       <c r="DX62" s="4"/>
     </row>
-    <row r="63" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:128">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -26280,7 +26266,7 @@
       <c r="DW63" s="4"/>
       <c r="DX63" s="4"/>
     </row>
-    <row r="64" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:128">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -26410,7 +26396,7 @@
       <c r="DW64" s="4"/>
       <c r="DX64" s="4"/>
     </row>
-    <row r="65" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:128">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -26540,7 +26526,7 @@
       <c r="DW65" s="4"/>
       <c r="DX65" s="4"/>
     </row>
-    <row r="66" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:128">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -26670,7 +26656,7 @@
       <c r="DW66" s="4"/>
       <c r="DX66" s="4"/>
     </row>
-    <row r="67" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:128">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -26800,7 +26786,7 @@
       <c r="DW67" s="4"/>
       <c r="DX67" s="4"/>
     </row>
-    <row r="68" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:128">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -26930,7 +26916,7 @@
       <c r="DW68" s="4"/>
       <c r="DX68" s="4"/>
     </row>
-    <row r="69" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:128">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -27060,7 +27046,7 @@
       <c r="DW69" s="4"/>
       <c r="DX69" s="4"/>
     </row>
-    <row r="70" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:128">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -27190,7 +27176,7 @@
       <c r="DW70" s="4"/>
       <c r="DX70" s="4"/>
     </row>
-    <row r="71" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:128">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -27320,7 +27306,7 @@
       <c r="DW71" s="4"/>
       <c r="DX71" s="4"/>
     </row>
-    <row r="72" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:128">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -27450,7 +27436,7 @@
       <c r="DW72" s="4"/>
       <c r="DX72" s="4"/>
     </row>
-    <row r="73" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:128">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -27580,7 +27566,7 @@
       <c r="DW73" s="4"/>
       <c r="DX73" s="4"/>
     </row>
-    <row r="74" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:128">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -27710,7 +27696,7 @@
       <c r="DW74" s="4"/>
       <c r="DX74" s="4"/>
     </row>
-    <row r="75" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:128">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -27840,7 +27826,7 @@
       <c r="DW75" s="4"/>
       <c r="DX75" s="4"/>
     </row>
-    <row r="76" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:128">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -27970,7 +27956,7 @@
       <c r="DW76" s="4"/>
       <c r="DX76" s="4"/>
     </row>
-    <row r="77" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:128">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -28100,7 +28086,7 @@
       <c r="DW77" s="4"/>
       <c r="DX77" s="4"/>
     </row>
-    <row r="78" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:128">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -28230,7 +28216,7 @@
       <c r="DW78" s="4"/>
       <c r="DX78" s="4"/>
     </row>
-    <row r="79" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:128">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -28360,7 +28346,7 @@
       <c r="DW79" s="4"/>
       <c r="DX79" s="4"/>
     </row>
-    <row r="80" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:128">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -28490,7 +28476,7 @@
       <c r="DW80" s="4"/>
       <c r="DX80" s="4"/>
     </row>
-    <row r="81" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:128">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -28620,7 +28606,7 @@
       <c r="DW81" s="4"/>
       <c r="DX81" s="4"/>
     </row>
-    <row r="82" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:128">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -28750,7 +28736,7 @@
       <c r="DW82" s="4"/>
       <c r="DX82" s="4"/>
     </row>
-    <row r="83" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:128">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -28880,7 +28866,7 @@
       <c r="DW83" s="4"/>
       <c r="DX83" s="4"/>
     </row>
-    <row r="84" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:128">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -29010,7 +28996,7 @@
       <c r="DW84" s="4"/>
       <c r="DX84" s="4"/>
     </row>
-    <row r="85" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:128">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -29140,7 +29126,7 @@
       <c r="DW85" s="4"/>
       <c r="DX85" s="4"/>
     </row>
-    <row r="86" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:128">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -29270,7 +29256,7 @@
       <c r="DW86" s="4"/>
       <c r="DX86" s="4"/>
     </row>
-    <row r="87" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:128">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -29400,7 +29386,7 @@
       <c r="DW87" s="4"/>
       <c r="DX87" s="4"/>
     </row>
-    <row r="88" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:128">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -29530,7 +29516,7 @@
       <c r="DW88" s="4"/>
       <c r="DX88" s="4"/>
     </row>
-    <row r="89" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:128">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -29660,7 +29646,7 @@
       <c r="DW89" s="4"/>
       <c r="DX89" s="4"/>
     </row>
-    <row r="90" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:128">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -29790,7 +29776,7 @@
       <c r="DW90" s="4"/>
       <c r="DX90" s="4"/>
     </row>
-    <row r="91" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:128">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -29920,7 +29906,7 @@
       <c r="DW91" s="4"/>
       <c r="DX91" s="4"/>
     </row>
-    <row r="92" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:128">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -30050,7 +30036,7 @@
       <c r="DW92" s="4"/>
       <c r="DX92" s="4"/>
     </row>
-    <row r="93" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:128">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -30180,7 +30166,7 @@
       <c r="DW93" s="4"/>
       <c r="DX93" s="4"/>
     </row>
-    <row r="94" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:128">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -30310,7 +30296,7 @@
       <c r="DW94" s="4"/>
       <c r="DX94" s="4"/>
     </row>
-    <row r="95" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:128">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -30440,7 +30426,7 @@
       <c r="DW95" s="4"/>
       <c r="DX95" s="4"/>
     </row>
-    <row r="96" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:128">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -30570,7 +30556,7 @@
       <c r="DW96" s="4"/>
       <c r="DX96" s="4"/>
     </row>
-    <row r="97" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:128">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -30700,7 +30686,7 @@
       <c r="DW97" s="4"/>
       <c r="DX97" s="4"/>
     </row>
-    <row r="98" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:128">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -30830,7 +30816,7 @@
       <c r="DW98" s="4"/>
       <c r="DX98" s="4"/>
     </row>
-    <row r="99" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:128">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -30960,7 +30946,7 @@
       <c r="DW99" s="4"/>
       <c r="DX99" s="4"/>
     </row>
-    <row r="100" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:128">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -31090,7 +31076,7 @@
       <c r="DW100" s="4"/>
       <c r="DX100" s="4"/>
     </row>
-    <row r="101" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:128">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -31220,7 +31206,7 @@
       <c r="DW101" s="4"/>
       <c r="DX101" s="4"/>
     </row>
-    <row r="102" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:128">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -31350,7 +31336,7 @@
       <c r="DW102" s="4"/>
       <c r="DX102" s="4"/>
     </row>
-    <row r="103" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:128">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -31480,7 +31466,7 @@
       <c r="DW103" s="4"/>
       <c r="DX103" s="4"/>
     </row>
-    <row r="104" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:128">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -31610,7 +31596,7 @@
       <c r="DW104" s="4"/>
       <c r="DX104" s="4"/>
     </row>
-    <row r="105" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:128">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -31740,7 +31726,7 @@
       <c r="DW105" s="4"/>
       <c r="DX105" s="4"/>
     </row>
-    <row r="106" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:128">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -31870,7 +31856,7 @@
       <c r="DW106" s="4"/>
       <c r="DX106" s="4"/>
     </row>
-    <row r="107" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:128">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -32000,7 +31986,7 @@
       <c r="DW107" s="4"/>
       <c r="DX107" s="4"/>
     </row>
-    <row r="108" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:128">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -32130,7 +32116,7 @@
       <c r="DW108" s="4"/>
       <c r="DX108" s="4"/>
     </row>
-    <row r="109" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:128">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -32260,7 +32246,7 @@
       <c r="DW109" s="4"/>
       <c r="DX109" s="4"/>
     </row>
-    <row r="110" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:128">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -32390,7 +32376,7 @@
       <c r="DW110" s="4"/>
       <c r="DX110" s="4"/>
     </row>
-    <row r="111" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:128">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -32520,7 +32506,7 @@
       <c r="DW111" s="4"/>
       <c r="DX111" s="4"/>
     </row>
-    <row r="112" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:128">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -32650,7 +32636,7 @@
       <c r="DW112" s="4"/>
       <c r="DX112" s="4"/>
     </row>
-    <row r="113" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:128">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -32780,7 +32766,7 @@
       <c r="DW113" s="4"/>
       <c r="DX113" s="4"/>
     </row>
-    <row r="114" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:128">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -32910,7 +32896,7 @@
       <c r="DW114" s="4"/>
       <c r="DX114" s="4"/>
     </row>
-    <row r="115" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:128">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -33040,7 +33026,7 @@
       <c r="DW115" s="4"/>
       <c r="DX115" s="4"/>
     </row>
-    <row r="116" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:128">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -33170,7 +33156,7 @@
       <c r="DW116" s="4"/>
       <c r="DX116" s="4"/>
     </row>
-    <row r="117" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:128">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -33300,7 +33286,7 @@
       <c r="DW117" s="4"/>
       <c r="DX117" s="4"/>
     </row>
-    <row r="118" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:128">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -33430,7 +33416,7 @@
       <c r="DW118" s="4"/>
       <c r="DX118" s="4"/>
     </row>
-    <row r="119" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:128">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -33560,7 +33546,7 @@
       <c r="DW119" s="4"/>
       <c r="DX119" s="4"/>
     </row>
-    <row r="120" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:128">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -33690,7 +33676,7 @@
       <c r="DW120" s="4"/>
       <c r="DX120" s="4"/>
     </row>
-    <row r="121" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:128">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -33820,7 +33806,7 @@
       <c r="DW121" s="4"/>
       <c r="DX121" s="4"/>
     </row>
-    <row r="122" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:128">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -33950,7 +33936,7 @@
       <c r="DW122" s="4"/>
       <c r="DX122" s="4"/>
     </row>
-    <row r="123" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:128">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -34080,7 +34066,7 @@
       <c r="DW123" s="4"/>
       <c r="DX123" s="4"/>
     </row>
-    <row r="124" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:128">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -34210,7 +34196,7 @@
       <c r="DW124" s="4"/>
       <c r="DX124" s="4"/>
     </row>
-    <row r="125" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:128">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -34340,7 +34326,7 @@
       <c r="DW125" s="4"/>
       <c r="DX125" s="4"/>
     </row>
-    <row r="126" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:128">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -34470,7 +34456,7 @@
       <c r="DW126" s="4"/>
       <c r="DX126" s="4"/>
     </row>
-    <row r="127" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:128">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -34600,7 +34586,7 @@
       <c r="DW127" s="4"/>
       <c r="DX127" s="4"/>
     </row>
-    <row r="128" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:128">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -34730,7 +34716,7 @@
       <c r="DW128" s="4"/>
       <c r="DX128" s="4"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>99</v>
       </c>
@@ -34740,25 +34726,34 @@
       <c r="D130" t="s">
         <v>100</v>
       </c>
+      <c r="F130" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8">
       <c r="A131" t="str">
         <f ca="1">ADDRESS(_xlfn.BITRSHIFT(_xlfn.BITRSHIFT(_pc,2),6) + 1,1+_xlfn.BITAND(_xlfn.BITRSHIFT(_pc,2),127))</f>
-        <v>$B$1</v>
+        <v>$AK$1</v>
       </c>
       <c r="B131" cm="1">
         <f t="array" aca="1" ref="B131" ca="1">INDIRECT(PCADDR)</f>
         <v>0</v>
       </c>
+      <c r="D131" t="b">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>134218148</v>
+      </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" t="e" cm="1">
-        <f t="array" aca="1" ref="A133" ca="1">IF(OVRD, OVRDVAL,PCVAL)</f>
-        <v>#NAME?</v>
+    <row r="133" spans="1:8">
+      <c r="A133">
+        <f ca="1">IF(OVRD?, OVRDVAL,PCVAL)</f>
+        <v>0</v>
       </c>
       <c r="B133">
-        <f>_xlfn.BITRSHIFT($A$133,26)</f>
-        <v>14</v>
+        <f ca="1">_xlfn.BITRSHIFT($A$133,26)</f>
+        <v>0</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -34770,7 +34765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -34778,31 +34773,31 @@
         <v>4</v>
       </c>
       <c r="C134" t="b">
-        <f>(OP=0)</f>
+        <f ca="1">(OP=0)</f>
+        <v>1</v>
+      </c>
+      <c r="E134" t="b">
+        <f ca="1">AND(NOT(RFMT),NOT(JFMT))</f>
         <v>0</v>
       </c>
-      <c r="E134" t="b">
-        <f>AND(NOT(RFMT),NOT(JFMT))</f>
-        <v>1</v>
-      </c>
       <c r="G134" t="b">
-        <f>OR(OP=2,OP=3,OP=26)</f>
+        <f ca="1">OR(OP=2,OP=3,OP=26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="C136" t="s">
         <v>25</v>
       </c>
       <c r="D136">
-        <f xml:space="preserve"> _xlfn.BITAND(INSTR,127)</f>
-        <v>79</v>
+        <f ca="1" xml:space="preserve"> _xlfn.BITAND(INSTR,127)</f>
+        <v>0</v>
       </c>
       <c r="E136" t="s">
         <v>24</v>
       </c>
       <c r="F136">
-        <f>IF(IFMT,_xlfn.BITAND(INSTR,65535),IMMD)</f>
+        <f ca="1">IF(IFMT,_xlfn.BITAND(INSTR,65535),IMMD)</f>
         <v>1999</v>
       </c>
       <c r="G136" t="s">
@@ -34813,7 +34808,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8">
       <c r="C137" t="s">
         <v>26</v>
       </c>
@@ -34822,40 +34817,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8">
       <c r="C138" t="s">
         <v>27</v>
       </c>
       <c r="D138">
         <f ca="1">IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,11),31),$D$138)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8">
       <c r="C139" t="s">
         <v>28</v>
       </c>
       <c r="D139">
-        <f>IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,16),31),$D$139)</f>
-        <v>13</v>
+        <f ca="1">IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,16),31),$D$139)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8">
       <c r="C140" t="s">
         <v>29</v>
       </c>
       <c r="D140">
-        <f>IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,21),31),$D$140)</f>
-        <v>3</v>
+        <f ca="1">IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,21),31),$D$140)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8">
       <c r="C142" t="s">
         <v>30</v>
       </c>
       <c r="D142" t="str">
         <f ca="1">IF(RFMT,ADDRESS(_xlfn.BITRSHIFT(RD,3)*2 + 160, 1+_xlfn.BITAND(RD,7)),RDADDR)</f>
-        <v>$C$160</v>
+        <v>$A$160</v>
       </c>
       <c r="E142" t="s">
         <v>44</v>
@@ -34865,13 +34860,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8">
       <c r="C143" t="s">
         <v>23</v>
       </c>
       <c r="D143" t="str">
-        <f>ADDRESS(_xlfn.BITRSHIFT(RT,3)*2 + 160, 1+_xlfn.BITAND(RT,7))</f>
-        <v>$F$162</v>
+        <f ca="1">ADDRESS(_xlfn.BITRSHIFT(RT,3)*2 + 160, 1+_xlfn.BITAND(RT,7))</f>
+        <v>$A$160</v>
       </c>
       <c r="E143" t="s">
         <v>45</v>
@@ -34881,32 +34876,32 @@
         <v>$F$160</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8">
       <c r="C144" t="s">
         <v>22</v>
       </c>
       <c r="D144" t="str">
-        <f>ADDRESS(_xlfn.BITRSHIFT(RS,3)*2 + 160, 1+_xlfn.BITAND(RS,7))</f>
-        <v>$D$160</v>
+        <f ca="1">ADDRESS(_xlfn.BITRSHIFT(RS,3)*2 + 160, 1+_xlfn.BITAND(RS,7))</f>
+        <v>$A$160</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19">
       <c r="C146" t="s">
         <v>33</v>
       </c>
       <c r="D146" cm="1">
         <f t="array" aca="1" ref="D146" ca="1">INDIRECT(RTADDR)</f>
-        <v>1999</v>
+        <v>0</v>
       </c>
       <c r="F146" t="s">
         <v>66</v>
       </c>
       <c r="G146">
-        <f>IF(RFMT, RD, IF(IFMT,IF(_xlfn.BITRSHIFT(OP,3)=0,31,RT),31))</f>
-        <v>13</v>
+        <f ca="1">IF(RFMT, RD, IF(IFMT,IF(_xlfn.BITRSHIFT(OP,3)=0,31,RT),31))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19">
       <c r="C147" t="s">
         <v>34</v>
       </c>
@@ -34918,11 +34913,11 @@
         <v>97</v>
       </c>
       <c r="G147" t="str">
-        <f>ADDRESS(_xlfn.BITRSHIFT(REGWRITE,3)*2 + 160, 1+_xlfn.BITAND(REGWRITE,7))</f>
-        <v>$F$162</v>
+        <f ca="1">ADDRESS(_xlfn.BITRSHIFT(REGWRITE,3)*2 + 160, 1+_xlfn.BITAND(REGWRITE,7))</f>
+        <v>$A$160</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19">
       <c r="A149" t="s">
         <v>65</v>
       </c>
@@ -34981,22 +34976,22 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19">
       <c r="B150">
         <f ca="1">RTVAL+RSVAL</f>
-        <v>1999</v>
+        <v>0</v>
       </c>
       <c r="C150">
         <f ca="1">RSVAL-RTVAL</f>
-        <v>-1999</v>
+        <v>0</v>
       </c>
       <c r="D150">
         <f ca="1">RSVAL*RTVAL</f>
         <v>0</v>
       </c>
-      <c r="E150">
+      <c r="E150" t="e">
         <f ca="1">RSVAL/RTVAL</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F150">
         <f ca="1">_xlfn.BITAND(RSVAL,RTVAL)</f>
@@ -35004,19 +34999,19 @@
       </c>
       <c r="G150">
         <f ca="1">_xlfn.BITOR(RSVAL,RTVAL)</f>
-        <v>1999</v>
+        <v>0</v>
       </c>
       <c r="H150">
         <f ca="1">_xlfn.BITXOR(RSVAL,RTVAL)</f>
-        <v>1999</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <f ca="1">_xlfn.BITLSHIFT(RTVAL,SHMT)</f>
-        <v>1999</v>
+        <v>0</v>
       </c>
       <c r="J150">
         <f ca="1">_xlfn.BITRSHIFT(RTVAL,SHMT)</f>
-        <v>1999</v>
+        <v>0</v>
       </c>
       <c r="K150">
         <f ca="1">RSVAL+IMMD</f>
@@ -35035,16 +35030,16 @@
         <v>1999</v>
       </c>
       <c r="O150">
-        <f ca="1">_xlfn.BITOR(_xlfn.BITAND(_pc+4,4026531840),_xlfn.BITLSHIFT(JBITS,2))</f>
+        <f ca="1">_xlfn.BITOR(_xlfn.BITAND(_pc, 4026531840), _xlfn.BITLSHIFT(JBITS,2))</f>
         <v>1680</v>
       </c>
       <c r="P150">
         <f ca="1">IF(RSVAL=RTVAL,_xlfn.BITLSHIFT(IMMD,2)+_pc+4,_pc+4)</f>
-        <v>8</v>
+        <v>8144</v>
       </c>
       <c r="Q150">
         <f ca="1">IF(RSVAL&lt;&gt;RTVAL,_xlfn.BITLSHIFT(IMMD,2)+_pc+4,_pc+4)</f>
-        <v>8004</v>
+        <v>148</v>
       </c>
       <c r="R150" cm="1">
         <f t="array" aca="1" ref="R150" ca="1">INDIRECT(LWBASEADDR)+IMMD</f>
@@ -35052,10 +35047,10 @@
       </c>
       <c r="S150">
         <f ca="1">RTVAL</f>
-        <v>1999</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" ht="17">
       <c r="A151" t="s">
         <v>64</v>
       </c>
@@ -35114,22 +35109,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19">
       <c r="B153" t="s">
         <v>31</v>
       </c>
       <c r="C153" cm="1">
         <f t="array" aca="1" ref="C153" ca="1">IFERROR(_xlfn.SWITCH(OP,8,ADDI,12,ANDI,13,ORI,14,XORI,2,J,4,BEQ,5,BNE,34,LW,42,SW, 0, _xlfn.SWITCH(FNCT,32,ADD,34,SUB,24,MULT,26,DIV,36,AND,37,OR,38,XOR,0,SLL,2,SRL)),ALU)</f>
-        <v>1999</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19">
       <c r="J158">
         <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_v0),_v0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19">
       <c r="A160">
         <v>0</v>
       </c>
@@ -35162,7 +35157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>67</v>
       </c>
@@ -35188,7 +35183,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8">
       <c r="A162">
         <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t1),_t1))</f>
         <v>0</v>
@@ -35222,7 +35217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>75</v>
       </c>
@@ -35248,7 +35243,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8">
       <c r="A164">
         <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t9),_t9))</f>
         <v>0</v>
@@ -35282,7 +35277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>83</v>
       </c>
@@ -35308,7 +35303,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8">
       <c r="A166">
         <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s7),_s7))</f>
         <v>0</v>
@@ -35339,10 +35334,10 @@
       </c>
       <c r="H166">
         <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_pc+4),_pc))</f>
-        <v>8</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>91</v>
       </c>
@@ -35382,16 +35377,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>4</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
-                    <xdr:row>132</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:row>127</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>215900</xdr:colOff>
-                    <xdr:row>134</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>129</xdr:row>
+                    <xdr:rowOff>88900</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/MIPCel.xlsx
+++ b/MIPCel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cooperterrill/Desktop/MIPCel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDBDA36-B2BD-E34F-88B0-FB285EDC6FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29381AF8-8596-AE4C-ADF0-E07D40B4898D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17100" yWindow="780" windowWidth="17100" windowHeight="19300" activeTab="1" xr2:uid="{95E4A03E-3FED-BF42-ACD2-5D2E65B33E92}"/>
   </bookViews>
@@ -540,7 +540,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -573,10 +573,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="4">
@@ -678,7 +674,7 @@
                   <a14:compatExt spid="_x0000_s2064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD954870-1035-1BCB-CC46-889CB8BF4F36}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1078,7 +1074,7 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
@@ -1091,10 +1087,10 @@
     <col min="20" max="20" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <f ca="1">IF($A$1 = 1,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2">
         <v>0</v>
@@ -1103,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1120,10 +1116,10 @@
       <c r="P2" s="3"/>
       <c r="T2">
         <f ca="1">CLK</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1133,7 +1129,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1143,7 +1139,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1153,44 +1149,44 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <f ca="1">IF(CLR = 1, 0, $A$20 + 1)</f>
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M31">
         <f ca="1">$M$32 + 1</f>
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L32">
         <f ca="1">$M$32 + 1</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M32">
         <f ca="1">$A$20</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N32">
         <f ca="1">$M$32 + 1</f>
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="M33">
         <f ca="1">$M$32 + 1</f>
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
         <v>18</v>
       </c>
@@ -1198,12 +1194,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G46">
         <v>4</v>
       </c>
@@ -1259,7 +1255,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1267,17 +1263,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:128">
+    <row r="49" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f ca="1">ADDRESS(_xlfn.BITRSHIFT(_xlfn.BITRSHIFT(_pc,2),6)+50,1+_xlfn.BITAND(_xlfn.BITRSHIFT(_pc,2),127))</f>
-        <v>$AL$50</v>
+        <v>$AQ$50</v>
       </c>
       <c r="B49" cm="1">
         <f t="array" aca="1" ref="B49" ca="1">INDIRECT($A$49)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:128">
+    <row r="50" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1413,7 +1409,7 @@
       <c r="DW50" s="2"/>
       <c r="DX50" s="2"/>
     </row>
-    <row r="51" spans="1:128">
+    <row r="51" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>9</v>
@@ -1545,7 +1541,7 @@
       <c r="DW51" s="2"/>
       <c r="DX51" s="2"/>
     </row>
-    <row r="52" spans="1:128">
+    <row r="52" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1675,7 +1671,7 @@
       <c r="DW52" s="2"/>
       <c r="DX52" s="2"/>
     </row>
-    <row r="53" spans="1:128">
+    <row r="53" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1805,7 +1801,7 @@
       <c r="DW53" s="2"/>
       <c r="DX53" s="2"/>
     </row>
-    <row r="54" spans="1:128">
+    <row r="54" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1935,7 +1931,7 @@
       <c r="DW54" s="2"/>
       <c r="DX54" s="2"/>
     </row>
-    <row r="55" spans="1:128">
+    <row r="55" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2065,7 +2061,7 @@
       <c r="DW55" s="2"/>
       <c r="DX55" s="2"/>
     </row>
-    <row r="56" spans="1:128">
+    <row r="56" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2195,7 +2191,7 @@
       <c r="DW56" s="2"/>
       <c r="DX56" s="2"/>
     </row>
-    <row r="57" spans="1:128">
+    <row r="57" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2325,7 +2321,7 @@
       <c r="DW57" s="2"/>
       <c r="DX57" s="2"/>
     </row>
-    <row r="58" spans="1:128">
+    <row r="58" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2455,7 +2451,7 @@
       <c r="DW58" s="2"/>
       <c r="DX58" s="2"/>
     </row>
-    <row r="59" spans="1:128">
+    <row r="59" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2585,7 +2581,7 @@
       <c r="DW59" s="2"/>
       <c r="DX59" s="2"/>
     </row>
-    <row r="60" spans="1:128">
+    <row r="60" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2715,7 +2711,7 @@
       <c r="DW60" s="2"/>
       <c r="DX60" s="2"/>
     </row>
-    <row r="61" spans="1:128">
+    <row r="61" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2845,7 +2841,7 @@
       <c r="DW61" s="2"/>
       <c r="DX61" s="2"/>
     </row>
-    <row r="62" spans="1:128">
+    <row r="62" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2975,7 +2971,7 @@
       <c r="DW62" s="2"/>
       <c r="DX62" s="2"/>
     </row>
-    <row r="63" spans="1:128">
+    <row r="63" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3105,7 +3101,7 @@
       <c r="DW63" s="2"/>
       <c r="DX63" s="2"/>
     </row>
-    <row r="64" spans="1:128">
+    <row r="64" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3235,7 +3231,7 @@
       <c r="DW64" s="2"/>
       <c r="DX64" s="2"/>
     </row>
-    <row r="65" spans="1:128">
+    <row r="65" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3365,7 +3361,7 @@
       <c r="DW65" s="2"/>
       <c r="DX65" s="2"/>
     </row>
-    <row r="66" spans="1:128">
+    <row r="66" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3495,7 +3491,7 @@
       <c r="DW66" s="2"/>
       <c r="DX66" s="2"/>
     </row>
-    <row r="67" spans="1:128">
+    <row r="67" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3625,7 +3621,7 @@
       <c r="DW67" s="2"/>
       <c r="DX67" s="2"/>
     </row>
-    <row r="68" spans="1:128">
+    <row r="68" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3755,7 +3751,7 @@
       <c r="DW68" s="2"/>
       <c r="DX68" s="2"/>
     </row>
-    <row r="69" spans="1:128">
+    <row r="69" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3885,7 +3881,7 @@
       <c r="DW69" s="2"/>
       <c r="DX69" s="2"/>
     </row>
-    <row r="70" spans="1:128">
+    <row r="70" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4015,7 +4011,7 @@
       <c r="DW70" s="2"/>
       <c r="DX70" s="2"/>
     </row>
-    <row r="71" spans="1:128">
+    <row r="71" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4145,7 +4141,7 @@
       <c r="DW71" s="2"/>
       <c r="DX71" s="2"/>
     </row>
-    <row r="72" spans="1:128">
+    <row r="72" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4275,7 +4271,7 @@
       <c r="DW72" s="2"/>
       <c r="DX72" s="2"/>
     </row>
-    <row r="73" spans="1:128">
+    <row r="73" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4405,7 +4401,7 @@
       <c r="DW73" s="2"/>
       <c r="DX73" s="2"/>
     </row>
-    <row r="74" spans="1:128">
+    <row r="74" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4535,7 +4531,7 @@
       <c r="DW74" s="2"/>
       <c r="DX74" s="2"/>
     </row>
-    <row r="75" spans="1:128">
+    <row r="75" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4665,7 +4661,7 @@
       <c r="DW75" s="2"/>
       <c r="DX75" s="2"/>
     </row>
-    <row r="76" spans="1:128">
+    <row r="76" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4795,7 +4791,7 @@
       <c r="DW76" s="2"/>
       <c r="DX76" s="2"/>
     </row>
-    <row r="77" spans="1:128">
+    <row r="77" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4925,7 +4921,7 @@
       <c r="DW77" s="2"/>
       <c r="DX77" s="2"/>
     </row>
-    <row r="78" spans="1:128">
+    <row r="78" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5055,7 +5051,7 @@
       <c r="DW78" s="2"/>
       <c r="DX78" s="2"/>
     </row>
-    <row r="79" spans="1:128">
+    <row r="79" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5185,7 +5181,7 @@
       <c r="DW79" s="2"/>
       <c r="DX79" s="2"/>
     </row>
-    <row r="80" spans="1:128">
+    <row r="80" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5315,7 +5311,7 @@
       <c r="DW80" s="2"/>
       <c r="DX80" s="2"/>
     </row>
-    <row r="81" spans="1:128">
+    <row r="81" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5445,7 +5441,7 @@
       <c r="DW81" s="2"/>
       <c r="DX81" s="2"/>
     </row>
-    <row r="82" spans="1:128">
+    <row r="82" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5575,7 +5571,7 @@
       <c r="DW82" s="2"/>
       <c r="DX82" s="2"/>
     </row>
-    <row r="83" spans="1:128">
+    <row r="83" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5705,7 +5701,7 @@
       <c r="DW83" s="2"/>
       <c r="DX83" s="2"/>
     </row>
-    <row r="84" spans="1:128">
+    <row r="84" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5835,7 +5831,7 @@
       <c r="DW84" s="2"/>
       <c r="DX84" s="2"/>
     </row>
-    <row r="85" spans="1:128">
+    <row r="85" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5965,7 +5961,7 @@
       <c r="DW85" s="2"/>
       <c r="DX85" s="2"/>
     </row>
-    <row r="86" spans="1:128">
+    <row r="86" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6095,7 +6091,7 @@
       <c r="DW86" s="2"/>
       <c r="DX86" s="2"/>
     </row>
-    <row r="87" spans="1:128">
+    <row r="87" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -6225,7 +6221,7 @@
       <c r="DW87" s="2"/>
       <c r="DX87" s="2"/>
     </row>
-    <row r="88" spans="1:128">
+    <row r="88" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -6355,7 +6351,7 @@
       <c r="DW88" s="2"/>
       <c r="DX88" s="2"/>
     </row>
-    <row r="89" spans="1:128">
+    <row r="89" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -6485,7 +6481,7 @@
       <c r="DW89" s="2"/>
       <c r="DX89" s="2"/>
     </row>
-    <row r="90" spans="1:128">
+    <row r="90" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -6615,7 +6611,7 @@
       <c r="DW90" s="2"/>
       <c r="DX90" s="2"/>
     </row>
-    <row r="91" spans="1:128">
+    <row r="91" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -6745,7 +6741,7 @@
       <c r="DW91" s="2"/>
       <c r="DX91" s="2"/>
     </row>
-    <row r="92" spans="1:128">
+    <row r="92" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -6875,7 +6871,7 @@
       <c r="DW92" s="2"/>
       <c r="DX92" s="2"/>
     </row>
-    <row r="93" spans="1:128">
+    <row r="93" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -7005,7 +7001,7 @@
       <c r="DW93" s="2"/>
       <c r="DX93" s="2"/>
     </row>
-    <row r="94" spans="1:128">
+    <row r="94" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -7135,7 +7131,7 @@
       <c r="DW94" s="2"/>
       <c r="DX94" s="2"/>
     </row>
-    <row r="95" spans="1:128">
+    <row r="95" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -7265,7 +7261,7 @@
       <c r="DW95" s="2"/>
       <c r="DX95" s="2"/>
     </row>
-    <row r="96" spans="1:128">
+    <row r="96" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -7395,7 +7391,7 @@
       <c r="DW96" s="2"/>
       <c r="DX96" s="2"/>
     </row>
-    <row r="97" spans="1:128">
+    <row r="97" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -7525,7 +7521,7 @@
       <c r="DW97" s="2"/>
       <c r="DX97" s="2"/>
     </row>
-    <row r="98" spans="1:128">
+    <row r="98" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -7655,7 +7651,7 @@
       <c r="DW98" s="2"/>
       <c r="DX98" s="2"/>
     </row>
-    <row r="99" spans="1:128">
+    <row r="99" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -7785,7 +7781,7 @@
       <c r="DW99" s="2"/>
       <c r="DX99" s="2"/>
     </row>
-    <row r="100" spans="1:128">
+    <row r="100" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -7915,7 +7911,7 @@
       <c r="DW100" s="2"/>
       <c r="DX100" s="2"/>
     </row>
-    <row r="101" spans="1:128">
+    <row r="101" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -8045,7 +8041,7 @@
       <c r="DW101" s="2"/>
       <c r="DX101" s="2"/>
     </row>
-    <row r="102" spans="1:128">
+    <row r="102" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -8175,7 +8171,7 @@
       <c r="DW102" s="2"/>
       <c r="DX102" s="2"/>
     </row>
-    <row r="103" spans="1:128">
+    <row r="103" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -8305,7 +8301,7 @@
       <c r="DW103" s="2"/>
       <c r="DX103" s="2"/>
     </row>
-    <row r="104" spans="1:128">
+    <row r="104" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -8435,7 +8431,7 @@
       <c r="DW104" s="2"/>
       <c r="DX104" s="2"/>
     </row>
-    <row r="105" spans="1:128">
+    <row r="105" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -8565,7 +8561,7 @@
       <c r="DW105" s="2"/>
       <c r="DX105" s="2"/>
     </row>
-    <row r="106" spans="1:128">
+    <row r="106" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -8695,7 +8691,7 @@
       <c r="DW106" s="2"/>
       <c r="DX106" s="2"/>
     </row>
-    <row r="107" spans="1:128">
+    <row r="107" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -8825,7 +8821,7 @@
       <c r="DW107" s="2"/>
       <c r="DX107" s="2"/>
     </row>
-    <row r="108" spans="1:128">
+    <row r="108" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -8955,7 +8951,7 @@
       <c r="DW108" s="2"/>
       <c r="DX108" s="2"/>
     </row>
-    <row r="109" spans="1:128">
+    <row r="109" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -9085,7 +9081,7 @@
       <c r="DW109" s="2"/>
       <c r="DX109" s="2"/>
     </row>
-    <row r="110" spans="1:128">
+    <row r="110" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -9215,7 +9211,7 @@
       <c r="DW110" s="2"/>
       <c r="DX110" s="2"/>
     </row>
-    <row r="111" spans="1:128">
+    <row r="111" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -9345,7 +9341,7 @@
       <c r="DW111" s="2"/>
       <c r="DX111" s="2"/>
     </row>
-    <row r="112" spans="1:128">
+    <row r="112" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -9475,7 +9471,7 @@
       <c r="DW112" s="2"/>
       <c r="DX112" s="2"/>
     </row>
-    <row r="113" spans="1:128">
+    <row r="113" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -9605,7 +9601,7 @@
       <c r="DW113" s="2"/>
       <c r="DX113" s="2"/>
     </row>
-    <row r="114" spans="1:128">
+    <row r="114" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -9735,7 +9731,7 @@
       <c r="DW114" s="2"/>
       <c r="DX114" s="2"/>
     </row>
-    <row r="115" spans="1:128">
+    <row r="115" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -9865,7 +9861,7 @@
       <c r="DW115" s="2"/>
       <c r="DX115" s="2"/>
     </row>
-    <row r="116" spans="1:128">
+    <row r="116" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -9995,7 +9991,7 @@
       <c r="DW116" s="2"/>
       <c r="DX116" s="2"/>
     </row>
-    <row r="117" spans="1:128">
+    <row r="117" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -10125,7 +10121,7 @@
       <c r="DW117" s="2"/>
       <c r="DX117" s="2"/>
     </row>
-    <row r="118" spans="1:128">
+    <row r="118" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -10255,7 +10251,7 @@
       <c r="DW118" s="2"/>
       <c r="DX118" s="2"/>
     </row>
-    <row r="119" spans="1:128">
+    <row r="119" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -10385,7 +10381,7 @@
       <c r="DW119" s="2"/>
       <c r="DX119" s="2"/>
     </row>
-    <row r="120" spans="1:128">
+    <row r="120" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -10515,7 +10511,7 @@
       <c r="DW120" s="2"/>
       <c r="DX120" s="2"/>
     </row>
-    <row r="121" spans="1:128">
+    <row r="121" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -10645,7 +10641,7 @@
       <c r="DW121" s="2"/>
       <c r="DX121" s="2"/>
     </row>
-    <row r="122" spans="1:128">
+    <row r="122" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -10775,7 +10771,7 @@
       <c r="DW122" s="2"/>
       <c r="DX122" s="2"/>
     </row>
-    <row r="123" spans="1:128">
+    <row r="123" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -10905,7 +10901,7 @@
       <c r="DW123" s="2"/>
       <c r="DX123" s="2"/>
     </row>
-    <row r="124" spans="1:128">
+    <row r="124" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -11035,7 +11031,7 @@
       <c r="DW124" s="2"/>
       <c r="DX124" s="2"/>
     </row>
-    <row r="125" spans="1:128">
+    <row r="125" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -11165,7 +11161,7 @@
       <c r="DW125" s="2"/>
       <c r="DX125" s="2"/>
     </row>
-    <row r="126" spans="1:128">
+    <row r="126" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -11295,7 +11291,7 @@
       <c r="DW126" s="2"/>
       <c r="DX126" s="2"/>
     </row>
-    <row r="127" spans="1:128">
+    <row r="127" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -11425,7 +11421,7 @@
       <c r="DW127" s="2"/>
       <c r="DX127" s="2"/>
     </row>
-    <row r="128" spans="1:128">
+    <row r="128" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -11555,7 +11551,7 @@
       <c r="DW128" s="2"/>
       <c r="DX128" s="2"/>
     </row>
-    <row r="129" spans="1:128">
+    <row r="129" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -11685,7 +11681,7 @@
       <c r="DW129" s="2"/>
       <c r="DX129" s="2"/>
     </row>
-    <row r="130" spans="1:128">
+    <row r="130" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -11815,7 +11811,7 @@
       <c r="DW130" s="2"/>
       <c r="DX130" s="2"/>
     </row>
-    <row r="131" spans="1:128">
+    <row r="131" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -11945,7 +11941,7 @@
       <c r="DW131" s="2"/>
       <c r="DX131" s="2"/>
     </row>
-    <row r="132" spans="1:128">
+    <row r="132" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -12075,7 +12071,7 @@
       <c r="DW132" s="2"/>
       <c r="DX132" s="2"/>
     </row>
-    <row r="133" spans="1:128">
+    <row r="133" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -12205,7 +12201,7 @@
       <c r="DW133" s="2"/>
       <c r="DX133" s="2"/>
     </row>
-    <row r="134" spans="1:128">
+    <row r="134" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -12335,7 +12331,7 @@
       <c r="DW134" s="2"/>
       <c r="DX134" s="2"/>
     </row>
-    <row r="135" spans="1:128">
+    <row r="135" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -12465,7 +12461,7 @@
       <c r="DW135" s="2"/>
       <c r="DX135" s="2"/>
     </row>
-    <row r="136" spans="1:128">
+    <row r="136" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -12595,7 +12591,7 @@
       <c r="DW136" s="2"/>
       <c r="DX136" s="2"/>
     </row>
-    <row r="137" spans="1:128">
+    <row r="137" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -12725,7 +12721,7 @@
       <c r="DW137" s="2"/>
       <c r="DX137" s="2"/>
     </row>
-    <row r="138" spans="1:128">
+    <row r="138" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -12855,7 +12851,7 @@
       <c r="DW138" s="2"/>
       <c r="DX138" s="2"/>
     </row>
-    <row r="139" spans="1:128">
+    <row r="139" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -12985,7 +12981,7 @@
       <c r="DW139" s="2"/>
       <c r="DX139" s="2"/>
     </row>
-    <row r="140" spans="1:128">
+    <row r="140" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -13115,7 +13111,7 @@
       <c r="DW140" s="2"/>
       <c r="DX140" s="2"/>
     </row>
-    <row r="141" spans="1:128">
+    <row r="141" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -13245,7 +13241,7 @@
       <c r="DW141" s="2"/>
       <c r="DX141" s="2"/>
     </row>
-    <row r="142" spans="1:128">
+    <row r="142" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -13375,7 +13371,7 @@
       <c r="DW142" s="2"/>
       <c r="DX142" s="2"/>
     </row>
-    <row r="143" spans="1:128">
+    <row r="143" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -13505,7 +13501,7 @@
       <c r="DW143" s="2"/>
       <c r="DX143" s="2"/>
     </row>
-    <row r="144" spans="1:128">
+    <row r="144" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -13635,7 +13631,7 @@
       <c r="DW144" s="2"/>
       <c r="DX144" s="2"/>
     </row>
-    <row r="145" spans="1:128">
+    <row r="145" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -13765,7 +13761,7 @@
       <c r="DW145" s="2"/>
       <c r="DX145" s="2"/>
     </row>
-    <row r="146" spans="1:128">
+    <row r="146" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -13895,7 +13891,7 @@
       <c r="DW146" s="2"/>
       <c r="DX146" s="2"/>
     </row>
-    <row r="147" spans="1:128">
+    <row r="147" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -14025,7 +14021,7 @@
       <c r="DW147" s="2"/>
       <c r="DX147" s="2"/>
     </row>
-    <row r="148" spans="1:128">
+    <row r="148" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -14155,7 +14151,7 @@
       <c r="DW148" s="2"/>
       <c r="DX148" s="2"/>
     </row>
-    <row r="149" spans="1:128">
+    <row r="149" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -14285,7 +14281,7 @@
       <c r="DW149" s="2"/>
       <c r="DX149" s="2"/>
     </row>
-    <row r="150" spans="1:128">
+    <row r="150" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -14415,7 +14411,7 @@
       <c r="DW150" s="2"/>
       <c r="DX150" s="2"/>
     </row>
-    <row r="151" spans="1:128">
+    <row r="151" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -14545,7 +14541,7 @@
       <c r="DW151" s="2"/>
       <c r="DX151" s="2"/>
     </row>
-    <row r="152" spans="1:128">
+    <row r="152" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -14675,7 +14671,7 @@
       <c r="DW152" s="2"/>
       <c r="DX152" s="2"/>
     </row>
-    <row r="153" spans="1:128">
+    <row r="153" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -14805,7 +14801,7 @@
       <c r="DW153" s="2"/>
       <c r="DX153" s="2"/>
     </row>
-    <row r="154" spans="1:128">
+    <row r="154" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -14935,7 +14931,7 @@
       <c r="DW154" s="2"/>
       <c r="DX154" s="2"/>
     </row>
-    <row r="155" spans="1:128">
+    <row r="155" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -15065,7 +15061,7 @@
       <c r="DW155" s="2"/>
       <c r="DX155" s="2"/>
     </row>
-    <row r="156" spans="1:128">
+    <row r="156" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -15195,7 +15191,7 @@
       <c r="DW156" s="2"/>
       <c r="DX156" s="2"/>
     </row>
-    <row r="157" spans="1:128">
+    <row r="157" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -15325,7 +15321,7 @@
       <c r="DW157" s="2"/>
       <c r="DX157" s="2"/>
     </row>
-    <row r="158" spans="1:128">
+    <row r="158" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -15455,7 +15451,7 @@
       <c r="DW158" s="2"/>
       <c r="DX158" s="2"/>
     </row>
-    <row r="159" spans="1:128">
+    <row r="159" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -15585,7 +15581,7 @@
       <c r="DW159" s="2"/>
       <c r="DX159" s="2"/>
     </row>
-    <row r="160" spans="1:128">
+    <row r="160" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -15715,7 +15711,7 @@
       <c r="DW160" s="2"/>
       <c r="DX160" s="2"/>
     </row>
-    <row r="161" spans="1:128">
+    <row r="161" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -15845,7 +15841,7 @@
       <c r="DW161" s="2"/>
       <c r="DX161" s="2"/>
     </row>
-    <row r="162" spans="1:128">
+    <row r="162" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -15975,7 +15971,7 @@
       <c r="DW162" s="2"/>
       <c r="DX162" s="2"/>
     </row>
-    <row r="163" spans="1:128">
+    <row r="163" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -16105,7 +16101,7 @@
       <c r="DW163" s="2"/>
       <c r="DX163" s="2"/>
     </row>
-    <row r="164" spans="1:128">
+    <row r="164" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -16235,7 +16231,7 @@
       <c r="DW164" s="2"/>
       <c r="DX164" s="2"/>
     </row>
-    <row r="165" spans="1:128">
+    <row r="165" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -16365,7 +16361,7 @@
       <c r="DW165" s="2"/>
       <c r="DX165" s="2"/>
     </row>
-    <row r="166" spans="1:128">
+    <row r="166" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -16495,7 +16491,7 @@
       <c r="DW166" s="2"/>
       <c r="DX166" s="2"/>
     </row>
-    <row r="167" spans="1:128">
+    <row r="167" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -16625,7 +16621,7 @@
       <c r="DW167" s="2"/>
       <c r="DX167" s="2"/>
     </row>
-    <row r="168" spans="1:128">
+    <row r="168" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -16755,7 +16751,7 @@
       <c r="DW168" s="2"/>
       <c r="DX168" s="2"/>
     </row>
-    <row r="169" spans="1:128">
+    <row r="169" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -16885,7 +16881,7 @@
       <c r="DW169" s="2"/>
       <c r="DX169" s="2"/>
     </row>
-    <row r="170" spans="1:128">
+    <row r="170" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -17015,7 +17011,7 @@
       <c r="DW170" s="2"/>
       <c r="DX170" s="2"/>
     </row>
-    <row r="171" spans="1:128">
+    <row r="171" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -17145,7 +17141,7 @@
       <c r="DW171" s="2"/>
       <c r="DX171" s="2"/>
     </row>
-    <row r="172" spans="1:128">
+    <row r="172" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -17275,7 +17271,7 @@
       <c r="DW172" s="2"/>
       <c r="DX172" s="2"/>
     </row>
-    <row r="173" spans="1:128">
+    <row r="173" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -17405,7 +17401,7 @@
       <c r="DW173" s="2"/>
       <c r="DX173" s="2"/>
     </row>
-    <row r="174" spans="1:128">
+    <row r="174" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -17535,7 +17531,7 @@
       <c r="DW174" s="2"/>
       <c r="DX174" s="2"/>
     </row>
-    <row r="175" spans="1:128">
+    <row r="175" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -17665,7 +17661,7 @@
       <c r="DW175" s="2"/>
       <c r="DX175" s="2"/>
     </row>
-    <row r="176" spans="1:128">
+    <row r="176" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -17795,7 +17791,7 @@
       <c r="DW176" s="2"/>
       <c r="DX176" s="2"/>
     </row>
-    <row r="177" spans="1:128">
+    <row r="177" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -17925,7 +17921,7 @@
       <c r="DW177" s="2"/>
       <c r="DX177" s="2"/>
     </row>
-    <row r="178" spans="1:128">
+    <row r="178" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -18066,17 +18062,17 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:DX167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M138" sqref="M138"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K137" sqref="K137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128">
+    <row r="1" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -18206,7 +18202,7 @@
       <c r="DW1" s="4"/>
       <c r="DX1" s="4"/>
     </row>
-    <row r="2" spans="1:128">
+    <row r="2" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -18336,7 +18332,7 @@
       <c r="DW2" s="4"/>
       <c r="DX2" s="4"/>
     </row>
-    <row r="3" spans="1:128">
+    <row r="3" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -18466,7 +18462,7 @@
       <c r="DW3" s="4"/>
       <c r="DX3" s="4"/>
     </row>
-    <row r="4" spans="1:128">
+    <row r="4" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -18596,7 +18592,7 @@
       <c r="DW4" s="4"/>
       <c r="DX4" s="4"/>
     </row>
-    <row r="5" spans="1:128">
+    <row r="5" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -18726,7 +18722,7 @@
       <c r="DW5" s="4"/>
       <c r="DX5" s="4"/>
     </row>
-    <row r="6" spans="1:128">
+    <row r="6" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -18856,7 +18852,7 @@
       <c r="DW6" s="4"/>
       <c r="DX6" s="4"/>
     </row>
-    <row r="7" spans="1:128">
+    <row r="7" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -18986,7 +18982,7 @@
       <c r="DW7" s="4"/>
       <c r="DX7" s="4"/>
     </row>
-    <row r="8" spans="1:128">
+    <row r="8" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -19116,7 +19112,7 @@
       <c r="DW8" s="4"/>
       <c r="DX8" s="4"/>
     </row>
-    <row r="9" spans="1:128">
+    <row r="9" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -19246,7 +19242,7 @@
       <c r="DW9" s="4"/>
       <c r="DX9" s="4"/>
     </row>
-    <row r="10" spans="1:128">
+    <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -19376,7 +19372,7 @@
       <c r="DW10" s="4"/>
       <c r="DX10" s="4"/>
     </row>
-    <row r="11" spans="1:128">
+    <row r="11" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -19506,7 +19502,7 @@
       <c r="DW11" s="4"/>
       <c r="DX11" s="4"/>
     </row>
-    <row r="12" spans="1:128">
+    <row r="12" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -19636,7 +19632,7 @@
       <c r="DW12" s="4"/>
       <c r="DX12" s="4"/>
     </row>
-    <row r="13" spans="1:128">
+    <row r="13" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -19766,7 +19762,7 @@
       <c r="DW13" s="4"/>
       <c r="DX13" s="4"/>
     </row>
-    <row r="14" spans="1:128">
+    <row r="14" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -19896,7 +19892,7 @@
       <c r="DW14" s="4"/>
       <c r="DX14" s="4"/>
     </row>
-    <row r="15" spans="1:128">
+    <row r="15" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -20026,7 +20022,7 @@
       <c r="DW15" s="4"/>
       <c r="DX15" s="4"/>
     </row>
-    <row r="16" spans="1:128">
+    <row r="16" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -20156,7 +20152,7 @@
       <c r="DW16" s="4"/>
       <c r="DX16" s="4"/>
     </row>
-    <row r="17" spans="1:128">
+    <row r="17" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -20286,7 +20282,7 @@
       <c r="DW17" s="4"/>
       <c r="DX17" s="4"/>
     </row>
-    <row r="18" spans="1:128">
+    <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -20416,7 +20412,7 @@
       <c r="DW18" s="4"/>
       <c r="DX18" s="4"/>
     </row>
-    <row r="19" spans="1:128">
+    <row r="19" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -20546,7 +20542,7 @@
       <c r="DW19" s="4"/>
       <c r="DX19" s="4"/>
     </row>
-    <row r="20" spans="1:128">
+    <row r="20" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -20676,7 +20672,7 @@
       <c r="DW20" s="4"/>
       <c r="DX20" s="4"/>
     </row>
-    <row r="21" spans="1:128">
+    <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -20806,7 +20802,7 @@
       <c r="DW21" s="4"/>
       <c r="DX21" s="4"/>
     </row>
-    <row r="22" spans="1:128">
+    <row r="22" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -20936,7 +20932,7 @@
       <c r="DW22" s="4"/>
       <c r="DX22" s="4"/>
     </row>
-    <row r="23" spans="1:128">
+    <row r="23" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -21066,7 +21062,7 @@
       <c r="DW23" s="4"/>
       <c r="DX23" s="4"/>
     </row>
-    <row r="24" spans="1:128">
+    <row r="24" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -21196,7 +21192,7 @@
       <c r="DW24" s="4"/>
       <c r="DX24" s="4"/>
     </row>
-    <row r="25" spans="1:128">
+    <row r="25" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -21326,7 +21322,7 @@
       <c r="DW25" s="4"/>
       <c r="DX25" s="4"/>
     </row>
-    <row r="26" spans="1:128">
+    <row r="26" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -21456,7 +21452,7 @@
       <c r="DW26" s="4"/>
       <c r="DX26" s="4"/>
     </row>
-    <row r="27" spans="1:128">
+    <row r="27" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -21586,7 +21582,7 @@
       <c r="DW27" s="4"/>
       <c r="DX27" s="4"/>
     </row>
-    <row r="28" spans="1:128">
+    <row r="28" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -21716,7 +21712,7 @@
       <c r="DW28" s="4"/>
       <c r="DX28" s="4"/>
     </row>
-    <row r="29" spans="1:128">
+    <row r="29" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -21846,7 +21842,7 @@
       <c r="DW29" s="4"/>
       <c r="DX29" s="4"/>
     </row>
-    <row r="30" spans="1:128">
+    <row r="30" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -21976,7 +21972,7 @@
       <c r="DW30" s="4"/>
       <c r="DX30" s="4"/>
     </row>
-    <row r="31" spans="1:128">
+    <row r="31" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -22106,7 +22102,7 @@
       <c r="DW31" s="4"/>
       <c r="DX31" s="4"/>
     </row>
-    <row r="32" spans="1:128">
+    <row r="32" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -22236,7 +22232,7 @@
       <c r="DW32" s="4"/>
       <c r="DX32" s="4"/>
     </row>
-    <row r="33" spans="1:128">
+    <row r="33" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -22366,7 +22362,7 @@
       <c r="DW33" s="4"/>
       <c r="DX33" s="4"/>
     </row>
-    <row r="34" spans="1:128">
+    <row r="34" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -22496,7 +22492,7 @@
       <c r="DW34" s="4"/>
       <c r="DX34" s="4"/>
     </row>
-    <row r="35" spans="1:128">
+    <row r="35" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -22626,7 +22622,7 @@
       <c r="DW35" s="4"/>
       <c r="DX35" s="4"/>
     </row>
-    <row r="36" spans="1:128">
+    <row r="36" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -22756,7 +22752,7 @@
       <c r="DW36" s="4"/>
       <c r="DX36" s="4"/>
     </row>
-    <row r="37" spans="1:128">
+    <row r="37" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -22886,7 +22882,7 @@
       <c r="DW37" s="4"/>
       <c r="DX37" s="4"/>
     </row>
-    <row r="38" spans="1:128">
+    <row r="38" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -23016,7 +23012,7 @@
       <c r="DW38" s="4"/>
       <c r="DX38" s="4"/>
     </row>
-    <row r="39" spans="1:128">
+    <row r="39" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -23146,7 +23142,7 @@
       <c r="DW39" s="4"/>
       <c r="DX39" s="4"/>
     </row>
-    <row r="40" spans="1:128">
+    <row r="40" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -23276,7 +23272,7 @@
       <c r="DW40" s="4"/>
       <c r="DX40" s="4"/>
     </row>
-    <row r="41" spans="1:128">
+    <row r="41" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -23406,7 +23402,7 @@
       <c r="DW41" s="4"/>
       <c r="DX41" s="4"/>
     </row>
-    <row r="42" spans="1:128">
+    <row r="42" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -23536,7 +23532,7 @@
       <c r="DW42" s="4"/>
       <c r="DX42" s="4"/>
     </row>
-    <row r="43" spans="1:128">
+    <row r="43" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -23666,7 +23662,7 @@
       <c r="DW43" s="4"/>
       <c r="DX43" s="4"/>
     </row>
-    <row r="44" spans="1:128">
+    <row r="44" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -23796,7 +23792,7 @@
       <c r="DW44" s="4"/>
       <c r="DX44" s="4"/>
     </row>
-    <row r="45" spans="1:128">
+    <row r="45" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -23926,7 +23922,7 @@
       <c r="DW45" s="4"/>
       <c r="DX45" s="4"/>
     </row>
-    <row r="46" spans="1:128">
+    <row r="46" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -24056,7 +24052,7 @@
       <c r="DW46" s="4"/>
       <c r="DX46" s="4"/>
     </row>
-    <row r="47" spans="1:128">
+    <row r="47" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -24186,7 +24182,7 @@
       <c r="DW47" s="4"/>
       <c r="DX47" s="4"/>
     </row>
-    <row r="48" spans="1:128">
+    <row r="48" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -24316,7 +24312,7 @@
       <c r="DW48" s="4"/>
       <c r="DX48" s="4"/>
     </row>
-    <row r="49" spans="1:128">
+    <row r="49" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -24446,7 +24442,7 @@
       <c r="DW49" s="4"/>
       <c r="DX49" s="4"/>
     </row>
-    <row r="50" spans="1:128">
+    <row r="50" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -24576,7 +24572,7 @@
       <c r="DW50" s="4"/>
       <c r="DX50" s="4"/>
     </row>
-    <row r="51" spans="1:128">
+    <row r="51" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -24706,7 +24702,7 @@
       <c r="DW51" s="4"/>
       <c r="DX51" s="4"/>
     </row>
-    <row r="52" spans="1:128">
+    <row r="52" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -24836,7 +24832,7 @@
       <c r="DW52" s="4"/>
       <c r="DX52" s="4"/>
     </row>
-    <row r="53" spans="1:128">
+    <row r="53" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -24966,7 +24962,7 @@
       <c r="DW53" s="4"/>
       <c r="DX53" s="4"/>
     </row>
-    <row r="54" spans="1:128">
+    <row r="54" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -25096,7 +25092,7 @@
       <c r="DW54" s="4"/>
       <c r="DX54" s="4"/>
     </row>
-    <row r="55" spans="1:128">
+    <row r="55" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -25226,7 +25222,7 @@
       <c r="DW55" s="4"/>
       <c r="DX55" s="4"/>
     </row>
-    <row r="56" spans="1:128">
+    <row r="56" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -25356,7 +25352,7 @@
       <c r="DW56" s="4"/>
       <c r="DX56" s="4"/>
     </row>
-    <row r="57" spans="1:128">
+    <row r="57" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -25486,7 +25482,7 @@
       <c r="DW57" s="4"/>
       <c r="DX57" s="4"/>
     </row>
-    <row r="58" spans="1:128">
+    <row r="58" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -25616,7 +25612,7 @@
       <c r="DW58" s="4"/>
       <c r="DX58" s="4"/>
     </row>
-    <row r="59" spans="1:128">
+    <row r="59" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -25746,7 +25742,7 @@
       <c r="DW59" s="4"/>
       <c r="DX59" s="4"/>
     </row>
-    <row r="60" spans="1:128">
+    <row r="60" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -25876,7 +25872,7 @@
       <c r="DW60" s="4"/>
       <c r="DX60" s="4"/>
     </row>
-    <row r="61" spans="1:128">
+    <row r="61" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -26006,7 +26002,7 @@
       <c r="DW61" s="4"/>
       <c r="DX61" s="4"/>
     </row>
-    <row r="62" spans="1:128">
+    <row r="62" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -26136,7 +26132,7 @@
       <c r="DW62" s="4"/>
       <c r="DX62" s="4"/>
     </row>
-    <row r="63" spans="1:128">
+    <row r="63" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -26266,7 +26262,7 @@
       <c r="DW63" s="4"/>
       <c r="DX63" s="4"/>
     </row>
-    <row r="64" spans="1:128">
+    <row r="64" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -26396,7 +26392,7 @@
       <c r="DW64" s="4"/>
       <c r="DX64" s="4"/>
     </row>
-    <row r="65" spans="1:128">
+    <row r="65" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -26526,7 +26522,7 @@
       <c r="DW65" s="4"/>
       <c r="DX65" s="4"/>
     </row>
-    <row r="66" spans="1:128">
+    <row r="66" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -26656,7 +26652,7 @@
       <c r="DW66" s="4"/>
       <c r="DX66" s="4"/>
     </row>
-    <row r="67" spans="1:128">
+    <row r="67" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -26786,7 +26782,7 @@
       <c r="DW67" s="4"/>
       <c r="DX67" s="4"/>
     </row>
-    <row r="68" spans="1:128">
+    <row r="68" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -26916,7 +26912,7 @@
       <c r="DW68" s="4"/>
       <c r="DX68" s="4"/>
     </row>
-    <row r="69" spans="1:128">
+    <row r="69" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -27046,7 +27042,7 @@
       <c r="DW69" s="4"/>
       <c r="DX69" s="4"/>
     </row>
-    <row r="70" spans="1:128">
+    <row r="70" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -27176,7 +27172,7 @@
       <c r="DW70" s="4"/>
       <c r="DX70" s="4"/>
     </row>
-    <row r="71" spans="1:128">
+    <row r="71" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -27306,7 +27302,7 @@
       <c r="DW71" s="4"/>
       <c r="DX71" s="4"/>
     </row>
-    <row r="72" spans="1:128">
+    <row r="72" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -27436,7 +27432,7 @@
       <c r="DW72" s="4"/>
       <c r="DX72" s="4"/>
     </row>
-    <row r="73" spans="1:128">
+    <row r="73" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -27566,7 +27562,7 @@
       <c r="DW73" s="4"/>
       <c r="DX73" s="4"/>
     </row>
-    <row r="74" spans="1:128">
+    <row r="74" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -27696,7 +27692,7 @@
       <c r="DW74" s="4"/>
       <c r="DX74" s="4"/>
     </row>
-    <row r="75" spans="1:128">
+    <row r="75" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -27826,7 +27822,7 @@
       <c r="DW75" s="4"/>
       <c r="DX75" s="4"/>
     </row>
-    <row r="76" spans="1:128">
+    <row r="76" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -27956,7 +27952,7 @@
       <c r="DW76" s="4"/>
       <c r="DX76" s="4"/>
     </row>
-    <row r="77" spans="1:128">
+    <row r="77" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -28086,7 +28082,7 @@
       <c r="DW77" s="4"/>
       <c r="DX77" s="4"/>
     </row>
-    <row r="78" spans="1:128">
+    <row r="78" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -28216,7 +28212,7 @@
       <c r="DW78" s="4"/>
       <c r="DX78" s="4"/>
     </row>
-    <row r="79" spans="1:128">
+    <row r="79" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -28346,7 +28342,7 @@
       <c r="DW79" s="4"/>
       <c r="DX79" s="4"/>
     </row>
-    <row r="80" spans="1:128">
+    <row r="80" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -28476,7 +28472,7 @@
       <c r="DW80" s="4"/>
       <c r="DX80" s="4"/>
     </row>
-    <row r="81" spans="1:128">
+    <row r="81" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -28606,7 +28602,7 @@
       <c r="DW81" s="4"/>
       <c r="DX81" s="4"/>
     </row>
-    <row r="82" spans="1:128">
+    <row r="82" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -28736,7 +28732,7 @@
       <c r="DW82" s="4"/>
       <c r="DX82" s="4"/>
     </row>
-    <row r="83" spans="1:128">
+    <row r="83" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -28866,7 +28862,7 @@
       <c r="DW83" s="4"/>
       <c r="DX83" s="4"/>
     </row>
-    <row r="84" spans="1:128">
+    <row r="84" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -28996,7 +28992,7 @@
       <c r="DW84" s="4"/>
       <c r="DX84" s="4"/>
     </row>
-    <row r="85" spans="1:128">
+    <row r="85" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -29126,7 +29122,7 @@
       <c r="DW85" s="4"/>
       <c r="DX85" s="4"/>
     </row>
-    <row r="86" spans="1:128">
+    <row r="86" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -29256,7 +29252,7 @@
       <c r="DW86" s="4"/>
       <c r="DX86" s="4"/>
     </row>
-    <row r="87" spans="1:128">
+    <row r="87" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -29386,7 +29382,7 @@
       <c r="DW87" s="4"/>
       <c r="DX87" s="4"/>
     </row>
-    <row r="88" spans="1:128">
+    <row r="88" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -29516,7 +29512,7 @@
       <c r="DW88" s="4"/>
       <c r="DX88" s="4"/>
     </row>
-    <row r="89" spans="1:128">
+    <row r="89" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -29646,7 +29642,7 @@
       <c r="DW89" s="4"/>
       <c r="DX89" s="4"/>
     </row>
-    <row r="90" spans="1:128">
+    <row r="90" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -29776,7 +29772,7 @@
       <c r="DW90" s="4"/>
       <c r="DX90" s="4"/>
     </row>
-    <row r="91" spans="1:128">
+    <row r="91" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -29906,7 +29902,7 @@
       <c r="DW91" s="4"/>
       <c r="DX91" s="4"/>
     </row>
-    <row r="92" spans="1:128">
+    <row r="92" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -30036,7 +30032,7 @@
       <c r="DW92" s="4"/>
       <c r="DX92" s="4"/>
     </row>
-    <row r="93" spans="1:128">
+    <row r="93" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -30166,7 +30162,7 @@
       <c r="DW93" s="4"/>
       <c r="DX93" s="4"/>
     </row>
-    <row r="94" spans="1:128">
+    <row r="94" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -30296,7 +30292,7 @@
       <c r="DW94" s="4"/>
       <c r="DX94" s="4"/>
     </row>
-    <row r="95" spans="1:128">
+    <row r="95" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -30426,7 +30422,7 @@
       <c r="DW95" s="4"/>
       <c r="DX95" s="4"/>
     </row>
-    <row r="96" spans="1:128">
+    <row r="96" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -30556,7 +30552,7 @@
       <c r="DW96" s="4"/>
       <c r="DX96" s="4"/>
     </row>
-    <row r="97" spans="1:128">
+    <row r="97" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -30686,7 +30682,7 @@
       <c r="DW97" s="4"/>
       <c r="DX97" s="4"/>
     </row>
-    <row r="98" spans="1:128">
+    <row r="98" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -30816,7 +30812,7 @@
       <c r="DW98" s="4"/>
       <c r="DX98" s="4"/>
     </row>
-    <row r="99" spans="1:128">
+    <row r="99" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -30946,7 +30942,7 @@
       <c r="DW99" s="4"/>
       <c r="DX99" s="4"/>
     </row>
-    <row r="100" spans="1:128">
+    <row r="100" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -31076,7 +31072,7 @@
       <c r="DW100" s="4"/>
       <c r="DX100" s="4"/>
     </row>
-    <row r="101" spans="1:128">
+    <row r="101" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -31206,7 +31202,7 @@
       <c r="DW101" s="4"/>
       <c r="DX101" s="4"/>
     </row>
-    <row r="102" spans="1:128">
+    <row r="102" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -31336,7 +31332,7 @@
       <c r="DW102" s="4"/>
       <c r="DX102" s="4"/>
     </row>
-    <row r="103" spans="1:128">
+    <row r="103" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -31466,7 +31462,7 @@
       <c r="DW103" s="4"/>
       <c r="DX103" s="4"/>
     </row>
-    <row r="104" spans="1:128">
+    <row r="104" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -31596,7 +31592,7 @@
       <c r="DW104" s="4"/>
       <c r="DX104" s="4"/>
     </row>
-    <row r="105" spans="1:128">
+    <row r="105" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -31726,7 +31722,7 @@
       <c r="DW105" s="4"/>
       <c r="DX105" s="4"/>
     </row>
-    <row r="106" spans="1:128">
+    <row r="106" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -31856,7 +31852,7 @@
       <c r="DW106" s="4"/>
       <c r="DX106" s="4"/>
     </row>
-    <row r="107" spans="1:128">
+    <row r="107" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -31986,7 +31982,7 @@
       <c r="DW107" s="4"/>
       <c r="DX107" s="4"/>
     </row>
-    <row r="108" spans="1:128">
+    <row r="108" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -32116,7 +32112,7 @@
       <c r="DW108" s="4"/>
       <c r="DX108" s="4"/>
     </row>
-    <row r="109" spans="1:128">
+    <row r="109" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -32246,7 +32242,7 @@
       <c r="DW109" s="4"/>
       <c r="DX109" s="4"/>
     </row>
-    <row r="110" spans="1:128">
+    <row r="110" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -32376,7 +32372,7 @@
       <c r="DW110" s="4"/>
       <c r="DX110" s="4"/>
     </row>
-    <row r="111" spans="1:128">
+    <row r="111" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -32506,7 +32502,7 @@
       <c r="DW111" s="4"/>
       <c r="DX111" s="4"/>
     </row>
-    <row r="112" spans="1:128">
+    <row r="112" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -32636,7 +32632,7 @@
       <c r="DW112" s="4"/>
       <c r="DX112" s="4"/>
     </row>
-    <row r="113" spans="1:128">
+    <row r="113" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -32766,7 +32762,7 @@
       <c r="DW113" s="4"/>
       <c r="DX113" s="4"/>
     </row>
-    <row r="114" spans="1:128">
+    <row r="114" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -32896,7 +32892,7 @@
       <c r="DW114" s="4"/>
       <c r="DX114" s="4"/>
     </row>
-    <row r="115" spans="1:128">
+    <row r="115" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -33026,7 +33022,7 @@
       <c r="DW115" s="4"/>
       <c r="DX115" s="4"/>
     </row>
-    <row r="116" spans="1:128">
+    <row r="116" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -33156,7 +33152,7 @@
       <c r="DW116" s="4"/>
       <c r="DX116" s="4"/>
     </row>
-    <row r="117" spans="1:128">
+    <row r="117" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -33286,7 +33282,7 @@
       <c r="DW117" s="4"/>
       <c r="DX117" s="4"/>
     </row>
-    <row r="118" spans="1:128">
+    <row r="118" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -33416,7 +33412,7 @@
       <c r="DW118" s="4"/>
       <c r="DX118" s="4"/>
     </row>
-    <row r="119" spans="1:128">
+    <row r="119" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -33546,7 +33542,7 @@
       <c r="DW119" s="4"/>
       <c r="DX119" s="4"/>
     </row>
-    <row r="120" spans="1:128">
+    <row r="120" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -33676,7 +33672,7 @@
       <c r="DW120" s="4"/>
       <c r="DX120" s="4"/>
     </row>
-    <row r="121" spans="1:128">
+    <row r="121" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -33806,7 +33802,7 @@
       <c r="DW121" s="4"/>
       <c r="DX121" s="4"/>
     </row>
-    <row r="122" spans="1:128">
+    <row r="122" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -33936,7 +33932,7 @@
       <c r="DW122" s="4"/>
       <c r="DX122" s="4"/>
     </row>
-    <row r="123" spans="1:128">
+    <row r="123" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -34066,7 +34062,7 @@
       <c r="DW123" s="4"/>
       <c r="DX123" s="4"/>
     </row>
-    <row r="124" spans="1:128">
+    <row r="124" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -34196,7 +34192,7 @@
       <c r="DW124" s="4"/>
       <c r="DX124" s="4"/>
     </row>
-    <row r="125" spans="1:128">
+    <row r="125" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -34326,7 +34322,7 @@
       <c r="DW125" s="4"/>
       <c r="DX125" s="4"/>
     </row>
-    <row r="126" spans="1:128">
+    <row r="126" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -34456,7 +34452,7 @@
       <c r="DW126" s="4"/>
       <c r="DX126" s="4"/>
     </row>
-    <row r="127" spans="1:128">
+    <row r="127" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -34586,7 +34582,7 @@
       <c r="DW127" s="4"/>
       <c r="DX127" s="4"/>
     </row>
-    <row r="128" spans="1:128">
+    <row r="128" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -34716,7 +34712,7 @@
       <c r="DW128" s="4"/>
       <c r="DX128" s="4"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>99</v>
       </c>
@@ -34730,10 +34726,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
         <f ca="1">ADDRESS(_xlfn.BITRSHIFT(_xlfn.BITRSHIFT(_pc,2),6) + 1,1+_xlfn.BITAND(_xlfn.BITRSHIFT(_pc,2),127))</f>
-        <v>$AK$1</v>
+        <v>$AP$1</v>
       </c>
       <c r="B131" cm="1">
         <f t="array" aca="1" ref="B131" ca="1">INDIRECT(PCADDR)</f>
@@ -34746,7 +34742,7 @@
         <v>134218148</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <f ca="1">IF(OVRD?, OVRDVAL,PCVAL)</f>
         <v>0</v>
@@ -34765,7 +34761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -34785,7 +34781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
         <v>25</v>
       </c>
@@ -34808,7 +34804,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
         <v>26</v>
       </c>
@@ -34817,7 +34813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
         <v>27</v>
       </c>
@@ -34826,7 +34822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C139" t="s">
         <v>28</v>
       </c>
@@ -34835,7 +34831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
         <v>29</v>
       </c>
@@ -34844,7 +34840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
         <v>30</v>
       </c>
@@ -34860,7 +34856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
         <v>23</v>
       </c>
@@ -34876,7 +34872,7 @@
         <v>$F$160</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
         <v>22</v>
       </c>
@@ -34885,7 +34881,7 @@
         <v>$A$160</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
         <v>33</v>
       </c>
@@ -34901,7 +34897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
         <v>34</v>
       </c>
@@ -34917,7 +34913,7 @@
         <v>$A$160</v>
       </c>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>65</v>
       </c>
@@ -34976,7 +34972,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B150">
         <f ca="1">RTVAL+RSVAL</f>
         <v>0</v>
@@ -35035,11 +35031,11 @@
       </c>
       <c r="P150">
         <f ca="1">IF(RSVAL=RTVAL,_xlfn.BITLSHIFT(IMMD,2)+_pc+4,_pc+4)</f>
-        <v>8144</v>
+        <v>8164</v>
       </c>
       <c r="Q150">
         <f ca="1">IF(RSVAL&lt;&gt;RTVAL,_xlfn.BITLSHIFT(IMMD,2)+_pc+4,_pc+4)</f>
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="R150" cm="1">
         <f t="array" aca="1" ref="R150" ca="1">INDIRECT(LWBASEADDR)+IMMD</f>
@@ -35050,7 +35046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="17">
+    <row r="151" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>64</v>
       </c>
@@ -35109,7 +35105,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>31</v>
       </c>
@@ -35118,13 +35114,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J158">
         <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_v0),_v0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0</v>
       </c>
@@ -35157,7 +35153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>67</v>
       </c>
@@ -35183,7 +35179,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
         <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t1),_t1))</f>
         <v>0</v>
@@ -35217,7 +35213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>75</v>
       </c>
@@ -35243,7 +35239,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
         <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t9),_t9))</f>
         <v>0</v>
@@ -35277,7 +35273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>83</v>
       </c>
@@ -35303,7 +35299,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
         <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s7),_s7))</f>
         <v>0</v>
@@ -35334,10 +35330,10 @@
       </c>
       <c r="H166">
         <f ca="1">IF(CLR,0,IFERROR(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_pc+4),_pc))</f>
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>91</v>
       </c>
